--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso em video HTML E CSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A710F6-E234-4F13-9AC8-56A4C75A8CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730DDDB8-26C3-4EDA-859D-4626EAF787E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="498">
   <si>
     <t>Descrição</t>
   </si>
@@ -1587,6 +1587,42 @@
   </si>
   <si>
     <t>usando IF</t>
+  </si>
+  <si>
+    <t>display: inline-block;</t>
+  </si>
+  <si>
+    <t>coloca as caixas uuma do lado d aoutra</t>
+  </si>
+  <si>
+    <t>Modelo de fundo</t>
+  </si>
+  <si>
+    <t>background-color: skyblue;</t>
+  </si>
+  <si>
+    <t>background-image: url('imagens/pattern003.png');</t>
+  </si>
+  <si>
+    <t>background-image: linear-gradient(to bottom, yellow, red);</t>
+  </si>
+  <si>
+    <t>degrade</t>
+  </si>
+  <si>
+    <t>inserindo uma imagem de fundo</t>
+  </si>
+  <si>
+    <t>background-size: 100px 100px;</t>
+  </si>
+  <si>
+    <t>não ira repetir a imagem</t>
+  </si>
+  <si>
+    <t>tamanho da imagem</t>
+  </si>
+  <si>
+    <t>background-repeat: no-repeat;   /*repeat-x repeat-y/*</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1771,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1805,6 +1841,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,7 +2117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2268,6 +2310,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
     </xf>
@@ -2277,14 +2328,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3493,12 +3538,12 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="84"/>
-      <c r="C135" s="84"/>
-      <c r="D135" s="84"/>
+      <c r="B135" s="87"/>
+      <c r="C135" s="87"/>
+      <c r="D135" s="87"/>
     </row>
     <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
@@ -3787,10 +3832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
-  <dimension ref="A2:E120"/>
+  <dimension ref="A2:E142"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4117,16 +4162,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="85"/>
+      <c r="B50" s="88"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="86" t="s">
+      <c r="A51" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="86"/>
+      <c r="B51" s="89"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
@@ -4538,8 +4583,107 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A124" s="90" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
+    </row>
+    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
+    </row>
+    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
+    </row>
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+    </row>
+    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
+    </row>
+    <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
+    </row>
+    <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
+    </row>
+    <row r="141" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+    </row>
+    <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4593,7 +4737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC532328-B521-42C9-AA9E-F5616725D26D}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
@@ -5086,7 +5230,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="84" t="s">
         <v>480</v>
       </c>
       <c r="B80" t="s">
@@ -5094,27 +5238,27 @@
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="88" t="s">
+      <c r="A81" s="85" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="88" t="s">
+      <c r="A82" s="85" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="88" t="s">
+      <c r="A83" s="85" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="88" t="s">
+      <c r="A84" s="85" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="86" t="s">
         <v>484</v>
       </c>
     </row>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730DDDB8-26C3-4EDA-859D-4626EAF787E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D73E8-4088-418C-B802-223F31E45DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="502">
   <si>
     <t>Descrição</t>
   </si>
@@ -1623,6 +1623,18 @@
   </si>
   <si>
     <t>background-repeat: no-repeat;   /*repeat-x repeat-y/*</t>
+  </si>
+  <si>
+    <t>background-position: left bottom;</t>
+  </si>
+  <si>
+    <t>Posição da imagem primeiro a coluna e depois a linha</t>
+  </si>
+  <si>
+    <t>height: 95vh;</t>
+  </si>
+  <si>
+    <t>altura da viewport  */ altura do body</t>
   </si>
 </sst>
 </file>
@@ -2319,6 +2331,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
     </xf>
@@ -2327,9 +2342,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3538,12 +3550,12 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A135" s="87" t="s">
+      <c r="A135" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="87"/>
-      <c r="C135" s="87"/>
-      <c r="D135" s="87"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="88"/>
+      <c r="D135" s="88"/>
     </row>
     <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
@@ -3835,7 +3847,7 @@
   <dimension ref="A2:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4162,16 +4174,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="88"/>
+      <c r="B50" s="89"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="89"/>
+      <c r="B51" s="90"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
@@ -4591,7 +4603,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A124" s="90" t="s">
+      <c r="A124" s="87" t="s">
         <v>488</v>
       </c>
     </row>
@@ -4634,12 +4646,20 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
+      <c r="A130" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
+      <c r="A131" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D73E8-4088-418C-B802-223F31E45DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849DCCED-2DC4-4945-8B74-994C42A43D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
     <sheet name="CSS" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="4" r:id="rId3"/>
-    <sheet name="GIMP" sheetId="3" r:id="rId4"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId5"/>
-    <sheet name="JS img" sheetId="7" r:id="rId6"/>
+    <sheet name="GitHub" sheetId="8" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
+    <sheet name="GIMP" sheetId="3" r:id="rId5"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId6"/>
+    <sheet name="JS img" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="506">
   <si>
     <t>Descrição</t>
   </si>
@@ -1636,12 +1637,24 @@
   <si>
     <t>altura da viewport  */ altura do body</t>
   </si>
+  <si>
+    <t>https://falcaomil.github.io/Curso-em-video-HTML-CSS/exercicios/ex022/fundo001.html</t>
+  </si>
+  <si>
+    <t>Para acessar o arquivo direto do git</t>
+  </si>
+  <si>
+    <t>background-size: cover;</t>
+  </si>
+  <si>
+    <t>vai cobrir 100% a imagem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1781,6 +1794,14 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2126,10 +2147,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2343,8 +2365,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3844,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
-  <dimension ref="A2:E142"/>
+  <dimension ref="A2:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,32 +4662,36 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B130" s="12" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="56" t="s">
-        <v>498</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="56" t="s">
         <v>500</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B132" s="12" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
     </row>
     <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="12"/>
@@ -4704,6 +4732,10 @@
     <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="12"/>
       <c r="B142" s="12"/>
+    </row>
+    <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4716,6 +4748,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B3327-7546-434C-928A-931946B76D03}">
+  <dimension ref="A4:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="91" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{64DA167E-E04E-4E11-B051-1B604BE9F7D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F03376-89E7-4D48-A526-F585631D75E0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4730,7 +4792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458971C1-FF74-46E2-98BB-BA9731C99C58}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -4753,7 +4815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC532328-B521-42C9-AA9E-F5616725D26D}">
   <dimension ref="A1:B229"/>
   <sheetViews>
@@ -5790,7 +5852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2164956-CC5A-42A5-B0C5-2C58FB82D740}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849DCCED-2DC4-4945-8B74-994C42A43D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB731A-8D1B-40A7-A89F-291CD958BA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="508">
   <si>
     <t>Descrição</t>
   </si>
@@ -1649,12 +1649,18 @@
   <si>
     <t>vai cobrir 100% a imagem</t>
   </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>a:hover</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1802,6 +1808,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD7BA7D"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2151,7 +2163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2356,6 +2368,7 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
     </xf>
@@ -2365,7 +2378,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2842,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,6 +3088,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="92" t="s">
+        <v>507</v>
+      </c>
+    </row>
     <row r="37" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>64</v>
@@ -3574,12 +3595,12 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A135" s="88" t="s">
+      <c r="A135" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="88"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="88"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="89"/>
     </row>
     <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
@@ -3870,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
   <dimension ref="A2:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4198,16 +4219,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="89"/>
+      <c r="B50" s="90"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="90" t="s">
+      <c r="A51" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="90"/>
+      <c r="B51" s="91"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
@@ -4702,7 +4723,9 @@
       <c r="B134" s="12"/>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="12"/>
+      <c r="A135" s="93" t="s">
+        <v>506</v>
+      </c>
       <c r="B135" s="12"/>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4752,7 +4775,7 @@
   <dimension ref="A4:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4762,7 +4785,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="88" t="s">
         <v>502</v>
       </c>
       <c r="B4" t="s">
@@ -4819,7 +4842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC532328-B521-42C9-AA9E-F5616725D26D}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CB731A-8D1B-40A7-A89F-291CD958BA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16490032-C8EB-447F-8453-B56D561DBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="513">
   <si>
     <t>Descrição</t>
   </si>
@@ -1650,10 +1650,25 @@
     <t>vai cobrir 100% a imagem</t>
   </si>
   <si>
-    <t>alex</t>
-  </si>
-  <si>
     <t>a:hover</t>
+  </si>
+  <si>
+    <t>font-size: clamp(3em, 5vw, 5em);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">white-space: pre-line; </t>
+  </si>
+  <si>
+    <t>/*texxto alinhado a left*/</t>
+  </si>
+  <si>
+    <t>/*tamanho da imagem*/</t>
+  </si>
+  <si>
+    <t>background-attachment: fixed;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efeito parallax </t>
   </si>
 </sst>
 </file>
@@ -2369,6 +2384,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
     </xf>
@@ -2378,10 +2396,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3089,8 +3104,8 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="92" t="s">
-        <v>507</v>
+      <c r="A33" s="89" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -3595,12 +3610,12 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A135" s="89" t="s">
+      <c r="A135" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="89"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="90"/>
     </row>
     <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
@@ -3891,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
   <dimension ref="A2:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,16 +4234,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="90"/>
+      <c r="B50" s="91"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="B51" s="91"/>
+      <c r="B51" s="92"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
@@ -4499,8 +4514,18 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
+      <c r="A92" s="56" t="s">
+        <v>507</v>
+      </c>
       <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="B93" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="99" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A99" s="53" t="s">
@@ -4715,17 +4740,23 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
+      <c r="A133" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
+      <c r="A134" s="56" t="s">
+        <v>511</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="93" t="s">
-        <v>506</v>
-      </c>
+      <c r="A135" s="93"/>
       <c r="B135" s="12"/>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16490032-C8EB-447F-8453-B56D561DBC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52893254-92C9-4C62-9F43-92F375302F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="545">
   <si>
     <t>Descrição</t>
   </si>
@@ -464,9 +464,6 @@
   </si>
   <si>
     <t>&lt;table&gt; &lt;tr&gt; &lt;!--Primeira linha--&gt;</t>
-  </si>
-  <si>
-    <t>cabeçalho da tabela</t>
   </si>
   <si>
     <t>TITULO DA TABELA</t>
@@ -614,9 +611,6 @@
     <t>&lt;link rel="stylesheet" href="style.css"&gt;</t>
   </si>
   <si>
-    <t>TABELA PROFISSIONAL</t>
-  </si>
-  <si>
     <t>TABELA NORMAL</t>
   </si>
   <si>
@@ -1669,6 +1663,108 @@
   </si>
   <si>
     <t xml:space="preserve">efeito parallax </t>
+  </si>
+  <si>
+    <t>flex-box</t>
+  </si>
+  <si>
+    <t>border-collapse: collapse;</t>
+  </si>
+  <si>
+    <t>Junta a tabela</t>
+  </si>
+  <si>
+    <t> border: 1px solid black;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertical-align: middle; </t>
+  </si>
+  <si>
+    <t>text-aligh: center;</t>
+  </si>
+  <si>
+    <t>alinhamento horizontal    -&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/*Aliamento vertical top/ middle/bottom/ */   </t>
+  </si>
+  <si>
+    <t>CORPO-</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>CABEÇA</t>
+  </si>
+  <si>
+    <t>cabeçalho da tabela legenda</t>
+  </si>
+  <si>
+    <t>        background-color: lightblue;  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tbody tr:nth-child(2n){ </t>
+  </si>
+  <si>
+    <t>        position: sticky;</t>
+  </si>
+  <si>
+    <t>        top: -1px;</t>
+  </si>
+  <si>
+    <t>        background-color: gray;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thead tr th{ </t>
+  </si>
+  <si>
+    <t>Fixar o cabeçalho ao  rolar a página</t>
+  </si>
+  <si>
+    <t>tbody tr:nth-child(2n-1){ /*(odd)*/</t>
+  </si>
+  <si>
+    <t>        background-color: blueviolet;</t>
+  </si>
+  <si>
+    <t>Tabela zebrada nos números impar  (2n-1)   (odd)</t>
+  </si>
+  <si>
+    <t>deixa a tabela zebrada nos numers pá (2n) (ever)</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>&lt;td colspan="2"&gt;B&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>Ira oculpar 2 celulas da linha da  tabela</t>
+  </si>
+  <si>
+    <t>ira o cupar 3 linhas para baixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;td rowspan="3"&gt;D&lt;/td&gt; </t>
+  </si>
+  <si>
+    <t>td{</t>
+  </si>
+  <si>
+    <t>borda na tabela</t>
+  </si>
+  <si>
+    <t>        border: 1px solid black;   }</t>
+  </si>
+  <si>
+    <t>table{</t>
+  </si>
+  <si>
+    <t>        border-collapse: collapse; }</t>
+  </si>
+  <si>
+    <t>Junta as bordas da tabela</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2387,6 +2483,8 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
     </xf>
@@ -2396,7 +2494,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2871,32 +2968,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.5703125" customWidth="1"/>
+    <col min="1" max="1" width="93.85546875" customWidth="1"/>
     <col min="2" max="2" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
@@ -3103,18 +3200,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="89" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>67</v>
       </c>
@@ -3122,7 +3219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>70</v>
       </c>
@@ -3130,7 +3227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>65</v>
       </c>
@@ -3138,764 +3235,925 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="12"/>
     </row>
-    <row r="44" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>513</v>
+      </c>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+    </row>
+    <row r="47" spans="1:4" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+    </row>
+    <row r="53" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="84" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="86" t="s">
+        <v>541</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+    </row>
+    <row r="56" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="84" t="s">
+        <v>542</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="86" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+    </row>
+    <row r="59" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
+    </row>
+    <row r="60" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="B60" s="91" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="85" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="85" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="86" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
+    </row>
+    <row r="65" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="84" t="s">
+        <v>524</v>
+      </c>
+      <c r="B65" s="91" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="86" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56"/>
+    </row>
+    <row r="68" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="B68" s="91" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="86" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56"/>
+    </row>
+    <row r="71" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56"/>
+    </row>
+    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B72" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B73" s="12" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+    <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="56" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="12"/>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="12"/>
-    </row>
-    <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="12"/>
-    </row>
-    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B54" s="12"/>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="12"/>
-    </row>
-    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="12"/>
-    </row>
-    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="12"/>
-    </row>
-    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="12"/>
-    </row>
-    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" s="12"/>
-    </row>
-    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="12"/>
-    </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="12"/>
-    </row>
-    <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="12"/>
-    </row>
-    <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="12"/>
-    </row>
-    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="12"/>
-    </row>
-    <row r="69" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="30" t="s">
+    <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
+      <c r="B96" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="12"/>
-    </row>
-    <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="12"/>
-    </row>
-    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="31" t="s">
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="12"/>
-    </row>
-    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="31" t="s">
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="12"/>
-    </row>
-    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="31" t="s">
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B74" s="12"/>
-    </row>
-    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
+      <c r="B101" s="12"/>
+    </row>
+    <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="12"/>
-    </row>
-    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="12"/>
-    </row>
-    <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="12"/>
-    </row>
-    <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="12"/>
-    </row>
-    <row r="79" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="12"/>
-    </row>
-    <row r="80" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="32" t="s">
+      <c r="B106" s="12"/>
+    </row>
+    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="12"/>
-    </row>
-    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="12"/>
-    </row>
-    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="12"/>
-    </row>
-    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A84" s="7" t="s">
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+    </row>
+    <row r="111" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A111" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B112" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+      <c r="B114" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B115" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+    <row r="121" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A121" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A94" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+      <c r="B123" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B124" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="12"/>
+    </row>
+    <row r="127" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
+    </row>
+    <row r="132" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A132" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" s="12"/>
+    </row>
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="12"/>
+    </row>
+    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="12"/>
+    </row>
+    <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B139" s="12"/>
+    </row>
+    <row r="144" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A144" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" s="12"/>
+    </row>
+    <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B146" s="12"/>
+    </row>
+    <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A147" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" s="12"/>
+    </row>
+    <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B150" s="12"/>
+    </row>
+    <row r="151" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
+    </row>
+    <row r="152" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A152" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="20"/>
+    </row>
+    <row r="153" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A153" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A162" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="92"/>
+      <c r="C162" s="92"/>
+      <c r="D162" s="92"/>
+    </row>
+    <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A163" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B97" s="15">
+      <c r="B163" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" s="12"/>
-    </row>
-    <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-    </row>
-    <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-    </row>
-    <row r="105" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A105" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B107" s="12"/>
-    </row>
-    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B109" s="12"/>
-    </row>
-    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="12"/>
-    </row>
-    <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="12"/>
-    </row>
-    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B112" s="12"/>
-    </row>
-    <row r="117" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A117" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B118" s="12"/>
-    </row>
-    <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B119" s="12"/>
-    </row>
-    <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B122" s="12"/>
-    </row>
-    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B123" s="12"/>
-    </row>
-    <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-    </row>
-    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B125" s="20"/>
-    </row>
-    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A135" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B135" s="90"/>
-      <c r="C135" s="90"/>
-      <c r="D135" s="90"/>
-    </row>
-    <row r="136" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
+    <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A164" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B164" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+    <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B165" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
+    <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B166" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
+    <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B168" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B140" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B141" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A146" s="3" t="s">
+    </row>
+    <row r="173" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="12" t="s">
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A174" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B174" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="12" t="s">
+    <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A175" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B175" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A149" s="12" t="s">
+    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B176" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A152" s="5" t="s">
+    <row r="179" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A179" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B152" s="24"/>
-    </row>
-    <row r="153" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A153" s="4" t="s">
+      <c r="B179" s="24"/>
+    </row>
+    <row r="180" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B180" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A159" s="8" t="s">
+    <row r="186" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A186" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B159" s="9"/>
-    </row>
-    <row r="160" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="12" t="s">
+      <c r="B186" s="9"/>
+    </row>
+    <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A187" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="12" t="s">
+    <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A162" s="12" t="s">
+    <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A189" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
+    <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A190" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="12"/>
-    </row>
-    <row r="165" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A165" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="12"/>
-    </row>
-    <row r="167" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="12"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="39" t="s">
+    <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A191" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A192" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A193" s="12"/>
+    </row>
+    <row r="194" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A194" s="12"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="41" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="41"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="41" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="41" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="41" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="41" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="41" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="41" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="41" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="41" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="43" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="41" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="37"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="37"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="37"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="37"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="37"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="37"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="37"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="37"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="37"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="37"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="37"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="37"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="37"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="37"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="37"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="37"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="37"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="37"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="37"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="37"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="38"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="38"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="37"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="37" t="s">
-        <v>239</v>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="37"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="37"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="37"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="37"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="37"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="37"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="37"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="37"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="37"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="37"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="37"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="37"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="37"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="37"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="37"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="37"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="37"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="37"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="37"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="37"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="38"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="38"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="37"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="37" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A162:D162"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3906,7 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
   <dimension ref="A2:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+    <sheetView topLeftCell="A135" workbookViewId="0">
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
@@ -3918,37 +4176,37 @@
   <sheetData>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3959,7 +4217,7 @@
     </row>
     <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -3971,10 +4229,10 @@
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -3983,149 +4241,149 @@
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>44</v>
@@ -4133,29 +4391,29 @@
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" s="12"/>
     </row>
     <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B37" s="12"/>
     </row>
@@ -4165,31 +4423,31 @@
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B39" s="12"/>
     </row>
     <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B43" s="12"/>
     </row>
@@ -4200,106 +4458,106 @@
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>224</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47" s="12"/>
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="91" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="91"/>
+      <c r="A50" s="93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="93"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="92"/>
+      <c r="A51" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="94"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B53" s="12"/>
     </row>
     <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="44" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B58" s="12"/>
     </row>
     <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B59" s="12"/>
     </row>
@@ -4309,54 +4567,54 @@
     </row>
     <row r="61" spans="1:2" s="53" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A61" s="54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B65" s="12"/>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B67" s="12"/>
     </row>
     <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="46" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B68" s="12"/>
     </row>
@@ -4366,18 +4624,18 @@
     </row>
     <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4386,29 +4644,29 @@
     </row>
     <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B75" s="12"/>
     </row>
     <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B76" s="12"/>
     </row>
@@ -4418,113 +4676,113 @@
     </row>
     <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="50" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B78" s="12"/>
     </row>
     <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B84" s="12"/>
     </row>
     <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>290</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B92" s="12"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="56" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B93" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -4534,18 +4792,18 @@
     </row>
     <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4557,206 +4815,206 @@
     </row>
     <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B107" s="51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A113" s="53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A124" s="87" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B125" s="12"/>
     </row>
     <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B128" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="56" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="56" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="56" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="93"/>
+      <c r="A135" s="90"/>
       <c r="B135" s="12"/>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4817,10 +5075,10 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4885,112 +5143,112 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -4999,18 +5257,18 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5019,27 +5277,27 @@
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B21" s="12"/>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="65" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B22" s="12"/>
     </row>
@@ -5049,27 +5307,27 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B24" s="12"/>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="63" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B27" s="12"/>
     </row>
@@ -5079,25 +5337,25 @@
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B30" s="12"/>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B31" s="12"/>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="64" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B32" s="12"/>
     </row>
@@ -5107,34 +5365,34 @@
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5143,15 +5401,15 @@
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="64" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B40" s="12"/>
     </row>
@@ -5161,15 +5419,15 @@
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="64" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B43" s="12"/>
     </row>
@@ -5179,15 +5437,15 @@
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="64" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B46" s="12"/>
     </row>
@@ -5197,13 +5455,13 @@
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B48" s="12"/>
     </row>
     <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="76" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B49" s="12"/>
     </row>
@@ -5213,21 +5471,21 @@
     </row>
     <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="78" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="79" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B52" s="12"/>
     </row>
     <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="80" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B53" s="12"/>
     </row>
@@ -5237,29 +5495,29 @@
     </row>
     <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="78" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="80" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B56" s="12"/>
     </row>
     <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="81" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="82" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5267,31 +5525,31 @@
     </row>
     <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="81" t="s">
+        <v>452</v>
+      </c>
+      <c r="B61" t="s">
         <v>454</v>
-      </c>
-      <c r="B61" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="82" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="12"/>
       <c r="B63" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="82" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5299,149 +5557,149 @@
     </row>
     <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="81" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="83" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="83" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="83" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="83" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="83" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="83" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="83" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="83" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="83" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="83" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="82" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="56" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="84" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="85" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="85" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="85" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="85" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="86" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A134" s="57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B134" s="12"/>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B136" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5454,24 +5712,24 @@
     </row>
     <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="66" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B142" s="67"/>
     </row>
     <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="68" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B143" s="69" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="70" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B144" s="71" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5480,32 +5738,32 @@
     </row>
     <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B146" s="12"/>
     </row>
     <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B149" s="72" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5578,7 +5836,7 @@
     </row>
     <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B167" s="12"/>
     </row>
@@ -5592,108 +5850,108 @@
     </row>
     <row r="170" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A170" s="75" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B170" s="12"/>
     </row>
     <row r="171" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B175" s="12"/>
     </row>
     <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A177" s="75" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B177" s="12"/>
     </row>
     <row r="178" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="72" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5702,32 +5960,32 @@
     </row>
     <row r="185" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A185" s="75" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B185" s="12"/>
     </row>
     <row r="186" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5736,19 +5994,19 @@
     </row>
     <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B190" s="12"/>
     </row>
     <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B191" s="12"/>
     </row>
     <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B192" s="12"/>
     </row>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52893254-92C9-4C62-9F43-92F375302F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6190A92-FE79-4AE9-AEF9-7D5B75F4CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="556">
   <si>
     <t>Descrição</t>
   </si>
@@ -1765,6 +1765,39 @@
   </si>
   <si>
     <t>Junta as bordas da tabela</t>
+  </si>
+  <si>
+    <t>&lt;th scope="col"&gt;Grupos&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>&lt;th scope="row"&gt;Total&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>escopo de linha</t>
+  </si>
+  <si>
+    <t>escopo de coluna</t>
+  </si>
+  <si>
+    <t>&lt;th scope="colgroup"&gt;Filmes&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>Escopo de varias colunas</t>
+  </si>
+  <si>
+    <t>&lt;th scope="rowgroup"&gt;Mulheres&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>Escopo de varias linhas</t>
+  </si>
+  <si>
+    <t>div#container{</t>
+  </si>
+  <si>
+    <t>responsividade rolagem lateral da tabela</t>
+  </si>
+  <si>
+    <t>            overflow-x: auto; }</t>
   </si>
 </sst>
 </file>
@@ -2968,10 +3001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3306,33 +3339,39 @@
       <c r="A52" s="56"/>
     </row>
     <row r="53" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="84" t="s">
-        <v>539</v>
+      <c r="A53" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="86" t="s">
-        <v>541</v>
+      <c r="A54" s="56" t="s">
+        <v>546</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="56" t="s">
+        <v>549</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="56" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="84" t="s">
-        <v>542</v>
+      <c r="A56" s="56" t="s">
+        <v>551</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
-        <v>543</v>
-      </c>
+      <c r="A57" s="56"/>
     </row>
     <row r="58" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
@@ -3342,762 +3381,785 @@
     </row>
     <row r="60" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="86" t="s">
+        <v>541</v>
+      </c>
+      <c r="B61" s="91" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
+    </row>
+    <row r="63" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="84" t="s">
+        <v>542</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="86" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56"/>
+    </row>
+    <row r="66" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56"/>
+    </row>
+    <row r="67" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="84" t="s">
         <v>528</v>
       </c>
-      <c r="B60" s="91" t="s">
+      <c r="B67" s="91" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="85" t="s">
+    <row r="68" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="85" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="85" t="s">
+    <row r="69" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="85" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="86" t="s">
+    <row r="70" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="86" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="56"/>
-    </row>
-    <row r="65" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="84" t="s">
-        <v>524</v>
-      </c>
-      <c r="B65" s="91" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="86" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56"/>
-    </row>
-    <row r="68" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="84" t="s">
-        <v>530</v>
-      </c>
-      <c r="B68" s="91" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="56"/>
     </row>
     <row r="71" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="56"/>
     </row>
-    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+    <row r="72" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="84" t="s">
+        <v>524</v>
+      </c>
+      <c r="B72" s="91" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="86" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="56"/>
+    </row>
+    <row r="75" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="B75" s="91" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="86" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="56"/>
+    </row>
+    <row r="78" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="56" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="B79" s="91" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B81" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="12"/>
-    </row>
-    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="12"/>
-    </row>
-    <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B78" s="12"/>
-    </row>
-    <row r="79" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B79" s="12"/>
-    </row>
-    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B80" s="56" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="12"/>
     </row>
     <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B83" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B84" s="12"/>
     </row>
     <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B86" s="12"/>
     </row>
     <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B87" s="12"/>
     </row>
     <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B88" s="12"/>
     </row>
-    <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="12"/>
-    </row>
-    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="B89" s="56" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" t="s">
-        <v>520</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B90" s="12"/>
     </row>
     <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B91" s="12"/>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B92" s="12"/>
     </row>
     <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B101" s="12"/>
+    </row>
+    <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B93" s="12"/>
-    </row>
-    <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="29" t="s">
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B103" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="12"/>
-    </row>
-    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="30" t="s">
+    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B105" s="33" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="12"/>
-    </row>
-    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="12"/>
-    </row>
-    <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B99" s="12"/>
-    </row>
-    <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B100" s="12"/>
-    </row>
-    <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B101" s="12"/>
-    </row>
-    <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="12"/>
-    </row>
-    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="12"/>
-    </row>
-    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B104" s="12"/>
-    </row>
-    <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" s="12"/>
     </row>
     <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="12"/>
+    </row>
+    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="12"/>
+    </row>
+    <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="12"/>
+    </row>
+    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="12"/>
+    </row>
+    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="12"/>
+    </row>
+    <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="12"/>
-    </row>
-    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="32" t="s">
+      <c r="B115" s="12"/>
+    </row>
+    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B107" s="12"/>
-    </row>
-    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
-      <c r="B108" s="12"/>
-    </row>
-    <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="12"/>
-    </row>
-    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-    </row>
-    <row r="111" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A111" s="7" t="s">
+      <c r="B116" s="12"/>
+    </row>
+    <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="12"/>
+    </row>
+    <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+    </row>
+    <row r="120" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A120" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="12" t="s">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B121" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B122" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B123" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
+    <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B124" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B125" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B126" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A121" s="7" t="s">
+    <row r="130" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A130" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B131" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="14" t="s">
+    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B123" s="15">
+      <c r="B132" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
+    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B124" s="15">
+      <c r="B133" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="14" t="s">
+    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B134" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="17" t="s">
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B126" s="12"/>
-    </row>
-    <row r="127" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-    </row>
-    <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-    </row>
-    <row r="132" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A132" s="7" t="s">
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
+    </row>
+    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+    </row>
+    <row r="141" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B142" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="18" t="s">
+    <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B134" s="12"/>
-    </row>
-    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="14" t="s">
+      <c r="B143" s="12"/>
+    </row>
+    <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A144" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B144" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="14" t="s">
+    <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B136" s="12"/>
-    </row>
-    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+      <c r="B145" s="12"/>
+    </row>
+    <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="B137" s="12"/>
-    </row>
-    <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B138" s="12"/>
-    </row>
-    <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B139" s="12"/>
-    </row>
-    <row r="144" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A144" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B145" s="12"/>
-    </row>
-    <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="B146" s="12"/>
     </row>
     <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="12"/>
+    </row>
+    <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B148" s="12"/>
+    </row>
+    <row r="153" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A153" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B154" s="12"/>
+    </row>
+    <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B155" s="12"/>
+    </row>
+    <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B156" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="14" t="s">
+    <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B157" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A149" s="14" t="s">
+    <row r="158" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A158" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B149" s="12"/>
-    </row>
-    <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
+      <c r="B158" s="12"/>
+    </row>
+    <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A159" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B150" s="12"/>
-    </row>
-    <row r="151" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-    </row>
-    <row r="152" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A152" s="19" t="s">
+      <c r="B159" s="12"/>
+    </row>
+    <row r="160" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
+    </row>
+    <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A161" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B152" s="20"/>
-    </row>
-    <row r="153" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A153" s="21" t="s">
+      <c r="B161" s="20"/>
+    </row>
+    <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A162" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B162" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A162" s="92" t="s">
+    <row r="171" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A171" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="92"/>
-      <c r="C162" s="92"/>
-      <c r="D162" s="92"/>
-    </row>
-    <row r="163" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
+      <c r="B171" s="92"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="92"/>
+    </row>
+    <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A172" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B172" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="12" t="s">
+    <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A173" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B173" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A165" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B166" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B167" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B168" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A173" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="1"/>
     </row>
     <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="12" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B177" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A182" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A183" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A185" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B185" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A179" s="5" t="s">
+    <row r="188" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A188" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B179" s="24"/>
-    </row>
-    <row r="180" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A180" s="4" t="s">
+      <c r="B188" s="24"/>
+    </row>
+    <row r="189" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B189" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A186" s="8" t="s">
+    <row r="195" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A195" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B186" s="9"/>
-    </row>
-    <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A187" s="12" t="s">
+      <c r="B195" s="9"/>
+    </row>
+    <row r="196" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A188" s="12" t="s">
+    <row r="197" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A197" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A189" s="12" t="s">
+    <row r="198" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A198" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A190" s="12" t="s">
+    <row r="199" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A199" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A191" s="12" t="s">
+    <row r="200" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A200" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A192" s="12" t="s">
+    <row r="201" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A201" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A193" s="12"/>
-    </row>
-    <row r="194" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A194" s="12"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="39" t="s">
+    <row r="202" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A202" s="12"/>
+    </row>
+    <row r="203" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A203" s="12"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="39" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="40" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="41" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="41" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="41" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="41"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="41" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="41"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="41" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="41" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="41" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="41" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="42" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="41" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="41" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="41" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="41" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="41" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="41" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="41" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="43" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="43" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="37"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="37"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="37"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="37"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="37"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="37"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="37"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="37"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="37"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="37"/>
@@ -4109,9 +4171,7 @@
       <c r="A224" s="37"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="37" t="s">
-        <v>236</v>
-      </c>
+      <c r="A225" s="37"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="37"/>
@@ -4138,22 +4198,51 @@
       <c r="A233" s="37"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="38"/>
+      <c r="A234" s="37" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="38"/>
+      <c r="A235" s="37"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="37"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="37" t="s">
+      <c r="A237" s="37"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="37"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="37"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="37"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="37"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="37"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="38"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="38"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="37"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="37" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A171:D171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6190A92-FE79-4AE9-AEF9-7D5B75F4CC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3950C-CBD3-47E4-B177-E769877AB099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="559">
   <si>
     <t>Descrição</t>
   </si>
@@ -1798,6 +1798,15 @@
   </si>
   <si>
     <t>            overflow-x: auto; }</t>
+  </si>
+  <si>
+    <t>IFRAME</t>
+  </si>
+  <si>
+    <t>scolling="no"</t>
+  </si>
+  <si>
+    <t>barra de rolagem lateral (no)  (yes) (auto)</t>
   </si>
 </sst>
 </file>
@@ -2307,7 +2316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2526,6 +2535,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3003,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3952,6 +3964,19 @@
       </c>
       <c r="B162" s="22" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="95" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="56" t="s">
+        <v>557</v>
+      </c>
+      <c r="B166" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3950C-CBD3-47E4-B177-E769877AB099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE31522-5B02-4C91-B039-38F4937F0C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="564">
   <si>
     <t>Descrição</t>
   </si>
@@ -1807,6 +1807,21 @@
   </si>
   <si>
     <t>barra de rolagem lateral (no)  (yes) (auto)</t>
+  </si>
+  <si>
+    <t> &lt;iframe id="tela" name="frame" srcdoc="&lt;h1&gt;Escolha uma das opções acima &lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;img src='imagens/cursoemvideo-logo.png'&gt;"&gt;         &lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  usando html dentro do iframe com a tag srcdoc</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="paginas-extras/pagina001.html" target="frame"&gt;Primeira página&lt;/a&gt;&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>inserindo link dentro de uma lista pra iframe usando tag (target) que tem que ser o mesmo (name) do iframe</t>
   </si>
 </sst>
 </file>
@@ -2527,6 +2542,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
     </xf>
@@ -2535,9 +2553,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3013,15 +3028,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="95.7109375" customWidth="1"/>
     <col min="2" max="2" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3952,13 +3967,13 @@
       <c r="A160" s="12"/>
       <c r="B160" s="12"/>
     </row>
-    <row r="161" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="19" t="s">
         <v>99</v>
       </c>
       <c r="B161" s="20"/>
     </row>
-    <row r="162" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A162" s="21" t="s">
         <v>100</v>
       </c>
@@ -3966,266 +3981,301 @@
         <v>101</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A165" s="95" t="s">
+    <row r="165" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A165" s="92" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="56" t="s">
+    <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A166" s="47" t="s">
         <v>557</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="12" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A171" s="92" t="s">
+    <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A167" s="47"/>
+      <c r="B167" s="12"/>
+    </row>
+    <row r="168" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A168" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A169" s="47"/>
+      <c r="B169" s="12"/>
+    </row>
+    <row r="170" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A170" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A171" s="46" t="s">
+        <v>560</v>
+      </c>
+      <c r="B171" s="12"/>
+    </row>
+    <row r="172" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A172" s="47"/>
+      <c r="B172" s="12"/>
+    </row>
+    <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+    </row>
+    <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
+    </row>
+    <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
+    </row>
+    <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
+    </row>
+    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+    </row>
+    <row r="178" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
+    </row>
+    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
+    </row>
+    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
+    </row>
+    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+    </row>
+    <row r="182" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A182" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="92"/>
-      <c r="C171" s="92"/>
-      <c r="D171" s="92"/>
-    </row>
-    <row r="172" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A172" s="12" t="s">
+      <c r="B182" s="93"/>
+      <c r="C182" s="93"/>
+      <c r="D182" s="93"/>
+    </row>
+    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A183" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B183" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="12" t="s">
+    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B184" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A174" s="12" t="s">
+    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A185" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B185" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="12" t="s">
+    <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A186" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B186" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="12" t="s">
+    <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A187" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B187" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B177" s="12" t="s">
+    <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B188" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A182" s="3" t="s">
+    <row r="193" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A193" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="12" t="s">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A194" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B194" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A184" s="12" t="s">
+    <row r="195" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A195" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B195" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A185" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A188" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188" s="24"/>
-    </row>
-    <row r="189" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A189" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A195" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B195" s="9"/>
     </row>
     <row r="196" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A199" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="24"/>
+    </row>
+    <row r="200" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A206" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A207" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A197" s="12" t="s">
+    <row r="208" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A208" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A198" s="12" t="s">
+    <row r="209" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A209" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A199" s="12" t="s">
+    <row r="210" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A210" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A200" s="12" t="s">
+    <row r="211" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A211" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A201" s="12" t="s">
+    <row r="212" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A212" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A202" s="12"/>
-    </row>
-    <row r="203" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A203" s="12"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="39" t="s">
+    <row r="213" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A213" s="12"/>
+    </row>
+    <row r="214" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A214" s="12"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="39" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="40" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="40" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="41" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="41" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="41" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="41"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="41" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="41"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="41" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="41" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="41" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="41" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="41" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="42" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="41" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="41" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="41" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="41" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="41" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="41" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="41" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="41" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="43" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="43" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="37"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="37"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="37"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="37"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="37"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="37"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="37"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="37"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="37"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="37"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="37"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="37"/>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="37" t="s">
-        <v>236</v>
-      </c>
+      <c r="A234" s="37"/>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="37"/>
@@ -4252,22 +4302,57 @@
       <c r="A242" s="37"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="38"/>
+      <c r="A243" s="37"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="38"/>
+      <c r="A244" s="37"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="37"/>
+      <c r="A245" s="37" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="37" t="s">
+      <c r="A246" s="37"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="37"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="37"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="37"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="37"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="37"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="37"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="37"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="38"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="38"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="37"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="37" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="A182:D182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4606,16 +4691,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="93"/>
+      <c r="B50" s="94"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="95" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="94"/>
+      <c r="B51" s="95"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE31522-5B02-4C91-B039-38F4937F0C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B2B0F-2AA3-4BDC-90CD-BD42D3FA7CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="165" windowWidth="9855" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="571">
   <si>
     <t>Descrição</t>
   </si>
@@ -1823,12 +1823,33 @@
   <si>
     <t>inserindo link dentro de uma lista pra iframe usando tag (target) que tem que ser o mesmo (name) do iframe</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cross site </t>
+  </si>
+  <si>
+    <t>Os ataques XSS</t>
+  </si>
+  <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="paginas-extras/pag004.html" sandbox="sandbox"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>tag sandbox segurança para não capturar as informaçoes</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="paginas-extras/pag004.html" sandbox="sandbox" referrerpolicy="no-referrer"&gt;</t>
+  </si>
+  <si>
+    <t>referrerpolicy="no-referrer" não ira caputar informação do iframe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1982,6 +2003,11 @@
       <color rgb="FFD7BA7D"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2331,7 +2357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2554,6 +2580,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3028,15 +3055,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.7109375" customWidth="1"/>
+    <col min="1" max="1" width="102.7109375" customWidth="1"/>
     <col min="2" max="2" width="83.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4029,16 +4056,24 @@
       <c r="B172" s="12"/>
     </row>
     <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
+      <c r="A173" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="12"/>
       <c r="B174" s="12"/>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
+      <c r="A175" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="12"/>
@@ -4177,108 +4212,118 @@
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A209" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A213" s="12"/>
-    </row>
-    <row r="214" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A214" s="12"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="39" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="96" t="s">
+        <v>564</v>
+      </c>
+      <c r="B213" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="96" t="s">
+        <v>565</v>
+      </c>
+      <c r="B214" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A215" s="12"/>
+    </row>
+    <row r="216" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A216" s="12"/>
+    </row>
+    <row r="217" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A217" s="12"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="39" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="40" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="41" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="41" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="41" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="41" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="41"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="41" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="41"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="41" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="41" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="42" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="41" t="s">
-        <v>244</v>
+      <c r="A227" s="42" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="41" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="43" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="43" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="37"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="37"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="37"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="37"/>
@@ -4308,9 +4353,7 @@
       <c r="A244" s="37"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="37" t="s">
-        <v>236</v>
-      </c>
+      <c r="A245" s="37"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="37"/>
@@ -4319,7 +4362,9 @@
       <c r="A247" s="37"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="37"/>
+      <c r="A248" s="37" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="37"/>
@@ -4337,16 +4382,25 @@
       <c r="A253" s="37"/>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="38"/>
+      <c r="A254" s="37"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="38"/>
+      <c r="A255" s="37"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="37"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="37" t="s">
+      <c r="A257" s="38"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="38"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="37"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="37" t="s">
         <v>237</v>
       </c>
     </row>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2B2B0F-2AA3-4BDC-90CD-BD42D3FA7CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3D194-50E2-43EA-9373-88C742F37746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="165" windowWidth="9855" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="592">
   <si>
     <t>Descrição</t>
   </si>
@@ -1843,6 +1843,69 @@
   </si>
   <si>
     <t>referrerpolicy="no-referrer" não ira caputar informação do iframe</t>
+  </si>
+  <si>
+    <t>            width: 0px;</t>
+  </si>
+  <si>
+    <t>            height: 0px;</t>
+  </si>
+  <si>
+    <t>para esconder a barra de rolagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::-webkit-scrollbar{ </t>
+  </si>
+  <si>
+    <t>FORMULARIO</t>
+  </si>
+  <si>
+    <t>Botão de enviar</t>
+  </si>
+  <si>
+    <t>caixa de texto</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="nome" id="nome"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="submit" value="Enviar"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form&gt; formulario entre na tag&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form autocomplete="off"&gt;</t>
+  </si>
+  <si>
+    <t>para não aparecer caixa de sugestão no input</t>
+  </si>
+  <si>
+    <t> &lt;form action="cadastro.php"&gt;</t>
+  </si>
+  <si>
+    <t>para fazer ligação com php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;label for="inome"&gt;Nome:&lt;/label&gt; </t>
+  </si>
+  <si>
+    <t>            &lt;input type="text" name="nome" id="inome" placeholder="Nome"&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>o FOR tem que ser o memo do ID</t>
+  </si>
+  <si>
+    <t>&lt;form method="get"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;form method="post"&gt;</t>
+  </si>
+  <si>
+    <t>aparece os dados na url - só enviar a te 3 mil bytes maios ou mesmos 3000 mil letras (não pode usar em campo sensível senha/numero de cartao de credito/ envio de foto)</t>
+  </si>
+  <si>
+    <t>Não aparece os dados na url / pode ser usador mais de 3 mil bytes/ pode ser usado para senha/ cartao de credito/ e enviar arquivos, fotos.</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2366,7 +2429,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2568,8 +2630,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
@@ -2580,7 +2649,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3055,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A177" sqref="A177"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3068,100 +3137,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3172,498 +3241,498 @@
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="88" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="90" t="s">
         <v>513</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-    </row>
-    <row r="47" spans="1:4" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+    </row>
+    <row r="47" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
         <v>515</v>
       </c>
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="90" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+    <row r="48" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
         <v>516</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="90" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+    <row r="49" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+    <row r="50" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
         <v>535</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="90" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
+    <row r="51" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
         <v>538</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="90" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56"/>
-    </row>
-    <row r="53" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56" t="s">
+    <row r="52" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="55"/>
+    </row>
+    <row r="53" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
         <v>545</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="90" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="56" t="s">
+    <row r="54" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
         <v>546</v>
       </c>
-      <c r="B54" s="91" t="s">
+      <c r="B54" s="90" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="56" t="s">
+    <row r="55" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
         <v>549</v>
       </c>
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="90" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="56" t="s">
+    <row r="56" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
         <v>551</v>
       </c>
-      <c r="B56" s="91" t="s">
+      <c r="B56" s="90" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
-    </row>
-    <row r="58" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
-    </row>
-    <row r="59" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-    </row>
-    <row r="60" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="84" t="s">
+    <row r="57" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+    </row>
+    <row r="58" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+    </row>
+    <row r="59" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55"/>
+    </row>
+    <row r="60" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="83" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="61" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="86" t="s">
+    <row r="61" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="85" t="s">
         <v>541</v>
       </c>
-      <c r="B61" s="91" t="s">
+      <c r="B61" s="90" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-    </row>
-    <row r="63" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="84" t="s">
+    <row r="62" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+    </row>
+    <row r="63" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="83" t="s">
         <v>542</v>
       </c>
-      <c r="B63" s="91" t="s">
+      <c r="B63" s="90" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="64" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86" t="s">
+    <row r="64" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="85" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56"/>
-    </row>
-    <row r="66" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-    </row>
-    <row r="67" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="84" t="s">
+    <row r="65" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="55"/>
+    </row>
+    <row r="66" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+    </row>
+    <row r="67" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="83" t="s">
         <v>528</v>
       </c>
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="90" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="85" t="s">
+    <row r="68" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="84" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="85" t="s">
+    <row r="69" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="84" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="86" t="s">
+    <row r="70" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="85" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
-    </row>
-    <row r="72" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="84" t="s">
+    <row r="71" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55"/>
+    </row>
+    <row r="72" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="83" t="s">
         <v>524</v>
       </c>
-      <c r="B72" s="91" t="s">
+      <c r="B72" s="90" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="86" t="s">
+    <row r="73" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="85" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="56"/>
-    </row>
-    <row r="75" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="84" t="s">
+    <row r="74" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="55"/>
+    </row>
+    <row r="75" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="83" t="s">
         <v>530</v>
       </c>
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="90" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="86" t="s">
+    <row r="76" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="85" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
-    </row>
-    <row r="78" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="56" t="s">
+    <row r="77" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+    </row>
+    <row r="78" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="55" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="56" t="s">
+    <row r="79" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="55" t="s">
         <v>555</v>
       </c>
-      <c r="B79" s="91" t="s">
+      <c r="B79" s="90" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="56" t="s">
+    <row r="80" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="55" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="12"/>
+      <c r="B86" s="11"/>
     </row>
     <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B87" s="12"/>
+      <c r="B87" s="11"/>
     </row>
     <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="12"/>
+      <c r="B88" s="11"/>
     </row>
     <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="56" t="s">
+      <c r="B89" s="55" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="11"/>
     </row>
     <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="12"/>
+      <c r="B91" s="11"/>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="B92" s="12"/>
+      <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B93" s="12"/>
+      <c r="B93" s="11"/>
     </row>
     <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="12"/>
+      <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="12"/>
+      <c r="B95" s="11"/>
     </row>
     <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="11"/>
     </row>
     <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B97" s="12"/>
+      <c r="B97" s="11"/>
     </row>
     <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B98" s="12"/>
+      <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="27" t="s">
         <v>123</v>
       </c>
       <c r="B99" t="s">
@@ -3671,742 +3740,840 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="12"/>
+      <c r="B100" s="11"/>
     </row>
     <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="11"/>
     </row>
     <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="12"/>
+      <c r="B102" s="11"/>
     </row>
     <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="11"/>
     </row>
     <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="32" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="31" t="s">
+      <c r="A106" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B106" s="12"/>
+      <c r="B106" s="11"/>
     </row>
     <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B107" s="12"/>
+      <c r="B107" s="11"/>
     </row>
     <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="31" t="s">
+      <c r="A108" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B108" s="12"/>
+      <c r="B108" s="11"/>
     </row>
     <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="31" t="s">
+      <c r="A109" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B109" s="12"/>
+      <c r="B109" s="11"/>
     </row>
     <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="31" t="s">
+      <c r="A110" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B110" s="12"/>
+      <c r="B110" s="11"/>
     </row>
     <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="12"/>
+      <c r="B111" s="11"/>
     </row>
     <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="31" t="s">
+      <c r="A112" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="12"/>
+      <c r="B112" s="11"/>
     </row>
     <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="31" t="s">
+      <c r="A113" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="11"/>
     </row>
     <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
+      <c r="A114" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B114" s="12"/>
+      <c r="B114" s="11"/>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="31" t="s">
+      <c r="A115" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="12"/>
+      <c r="B115" s="11"/>
     </row>
     <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="32" t="s">
+      <c r="A116" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="11"/>
     </row>
     <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
-      <c r="B117" s="12"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="11"/>
     </row>
     <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="11"/>
     </row>
     <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
     </row>
     <row r="120" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B132" s="15">
+      <c r="B132" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="14" t="s">
+      <c r="A133" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="15">
+      <c r="B133" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B135" s="12"/>
+      <c r="B135" s="11"/>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
     </row>
     <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
     </row>
     <row r="141" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="12"/>
+      <c r="B143" s="11"/>
     </row>
     <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B145" s="12"/>
+      <c r="B145" s="11"/>
     </row>
     <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="11"/>
     </row>
     <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="12"/>
+      <c r="B147" s="11"/>
     </row>
     <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="11"/>
     </row>
     <row r="153" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B154" s="12"/>
+      <c r="B154" s="11"/>
     </row>
     <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B155" s="12"/>
+      <c r="B155" s="11"/>
     </row>
     <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="11" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="12"/>
+      <c r="B158" s="11"/>
     </row>
     <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B159" s="12"/>
+      <c r="B159" s="11"/>
     </row>
     <row r="160" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
     </row>
     <row r="161" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="19" t="s">
+      <c r="A161" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="19"/>
     </row>
     <row r="162" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B162" s="22" t="s">
+      <c r="B162" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A165" s="92" t="s">
+      <c r="A165" s="6" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="47" t="s">
+      <c r="A166" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="11" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="47"/>
-      <c r="B167" s="12"/>
+      <c r="A167" s="46"/>
+      <c r="B167" s="11"/>
     </row>
     <row r="168" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A168" s="56" t="s">
+      <c r="A168" s="55" t="s">
         <v>562</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="11" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A169" s="47"/>
-      <c r="B169" s="12"/>
+      <c r="A169" s="46"/>
+      <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A170" s="44" t="s">
+      <c r="A170" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="11" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A171" s="46" t="s">
+      <c r="A171" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="B171" s="12"/>
+      <c r="B171" s="11"/>
     </row>
     <row r="172" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A172" s="47"/>
-      <c r="B172" s="12"/>
+      <c r="A172" s="46"/>
+      <c r="B172" s="11"/>
     </row>
     <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="56" t="s">
+      <c r="A173" s="55" t="s">
         <v>567</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="56" t="s">
+      <c r="A175" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="11" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-    </row>
-    <row r="177" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-    </row>
-    <row r="178" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-    </row>
-    <row r="179" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-    </row>
-    <row r="180" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-    </row>
-    <row r="181" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-    </row>
-    <row r="182" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A182" s="93" t="s">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+    </row>
+    <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A178" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="B178" s="98"/>
+    </row>
+    <row r="179" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A179" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="B179" s="89"/>
+    </row>
+    <row r="180" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A180" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="B180" s="89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A183" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+    </row>
+    <row r="185" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A185" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A186" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="B186" s="11"/>
+    </row>
+    <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+    </row>
+    <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A188" s="36" t="s">
+        <v>588</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A189" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+    </row>
+    <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+    </row>
+    <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+    </row>
+    <row r="193" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+    </row>
+    <row r="195" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+    </row>
+    <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A198" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="93"/>
-      <c r="C182" s="93"/>
-      <c r="D182" s="93"/>
-    </row>
-    <row r="183" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="12" t="s">
+      <c r="B198" s="95"/>
+      <c r="C198" s="95"/>
+      <c r="D198" s="95"/>
+    </row>
+    <row r="199" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B199" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A184" s="12" t="s">
+    <row r="200" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A200" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B200" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A185" s="12" t="s">
+    <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A201" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B201" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="12" t="s">
+    <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A202" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B202" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A187" s="12" t="s">
+    <row r="203" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A203" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B203" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B188" s="12" t="s">
+    <row r="204" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B204" s="11" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A193" s="3" t="s">
+    <row r="209" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A209" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A194" s="12" t="s">
+      <c r="B209" s="1"/>
+    </row>
+    <row r="210" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A210" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B210" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A195" s="12" t="s">
+    <row r="211" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A211" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B211" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="12" t="s">
+    <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A212" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B212" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A199" s="5" t="s">
+    <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A215" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B199" s="24"/>
-    </row>
-    <row r="200" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A200" s="4" t="s">
+      <c r="B215" s="23"/>
+    </row>
+    <row r="216" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B216" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A206" s="8" t="s">
+    <row r="222" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A222" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B206" s="9"/>
-    </row>
-    <row r="207" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A207" s="12" t="s">
+      <c r="B222" s="8"/>
+    </row>
+    <row r="223" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A223" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A208" s="12" t="s">
+    <row r="224" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A224" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A209" s="12" t="s">
+    <row r="225" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A225" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A210" s="12" t="s">
+    <row r="226" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A226" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A211" s="12" t="s">
+    <row r="227" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A227" s="11" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A212" s="12" t="s">
+    <row r="228" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A228" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="96" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="91" t="s">
         <v>564</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B229" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="96" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="91" t="s">
         <v>565</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B230" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A215" s="12"/>
-    </row>
-    <row r="216" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A216" s="12"/>
-    </row>
-    <row r="217" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A217" s="12"/>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="39" t="s">
+    <row r="231" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A231" s="11"/>
+    </row>
+    <row r="232" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A232" s="11"/>
+    </row>
+    <row r="233" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A233" s="11"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="38" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="40" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="41" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="41" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="40" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="41"/>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="41" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="40"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="41" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="40" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="41" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="42" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="41" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="41" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="40" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="41" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="40" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="41" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="40" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="41" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="43" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="42" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="37"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="37"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="37"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="37"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="37"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="37"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="37"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="37"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="37"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="37"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="37"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="37"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="37" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="36"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="36"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="36"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="36"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="36"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="36"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="36"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="36"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="36"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="36"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="36"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="36"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="36" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="37"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="37"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="37"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="37"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="37"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="37"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="37"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="37"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="38"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="38"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="37"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="37" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="36"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="36"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="36"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="36"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="36"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="36"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="36"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="36"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="37"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="37"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="36"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="36" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A198:D198"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4415,10 +4582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
-  <dimension ref="A2:E143"/>
+  <dimension ref="A2:E146"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4428,610 +4595,610 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="12"/>
+      <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="11"/>
     </row>
     <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="11"/>
     </row>
     <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="94"/>
+      <c r="B50" s="96"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="95"/>
+      <c r="B51" s="97"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
-      <c r="B60" s="12"/>
-    </row>
-    <row r="61" spans="1:2" s="53" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A61" s="54" t="s">
+      <c r="A60" s="46"/>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:2" s="52" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A61" s="53" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="45" t="s">
+      <c r="A63" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="11"/>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="11"/>
     </row>
     <row r="69" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="48"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="47"/>
+      <c r="B69" s="11"/>
     </row>
     <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="47"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="11"/>
     </row>
     <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="45" t="s">
+      <c r="A74" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="50"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="48" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="56" t="s">
+      <c r="A92" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B92" s="12"/>
+      <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="55" t="s">
         <v>506</v>
       </c>
       <c r="B93" t="s">
@@ -5039,268 +5206,291 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
     </row>
     <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B103" s="12"/>
+      <c r="B103" s="11"/>
     </row>
     <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="11" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="50" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A113" s="53" t="s">
+      <c r="A113" s="52" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="11" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A124" s="87" t="s">
+    <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="92" t="s">
+        <v>574</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="93" t="s">
+        <v>571</v>
+      </c>
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="94" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A127" s="86" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
+    <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B125" s="12"/>
-    </row>
-    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B129" s="11" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
+    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B130" s="11" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A128" s="13" t="s">
+    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="56" t="s">
+    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B132" s="11" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="13" t="s">
+    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="56" t="s">
+    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="55" t="s">
         <v>496</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B134" s="11" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="56" t="s">
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B135" s="11" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="56" t="s">
+    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B136" s="11" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="56" t="s">
+    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="55" t="s">
         <v>509</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="90"/>
-      <c r="B135" s="12"/>
-    </row>
-    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-    </row>
-    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-    </row>
     <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
+      <c r="A138" s="89"/>
+      <c r="B138" s="11"/>
     </row>
     <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
     </row>
     <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
     </row>
     <row r="141" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
     </row>
     <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5327,7 +5517,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>500</v>
       </c>
       <c r="B4" t="s">
@@ -5368,12 +5558,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5427,7 +5617,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>341</v>
       </c>
       <c r="B5" t="s">
@@ -5443,325 +5633,325 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="59"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="11"/>
     </row>
     <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="62" t="s">
         <v>363</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="62" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
     </row>
     <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="59" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="77"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="59" t="s">
         <v>432</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="58"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="37"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="76" t="s">
+      <c r="A49" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="78" t="s">
         <v>442</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="80" t="s">
+      <c r="A53" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="78" t="s">
+      <c r="A55" s="77" t="s">
         <v>445</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="80" t="s">
+      <c r="A56" s="79" t="s">
         <v>446</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="80" t="s">
         <v>447</v>
       </c>
       <c r="B58" t="s">
@@ -5769,15 +5959,15 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="81" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
+      <c r="A60" s="11"/>
     </row>
     <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="80" t="s">
         <v>452</v>
       </c>
       <c r="B61" t="s">
@@ -5785,31 +5975,31 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="81" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="11"/>
       <c r="B63" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="80" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="82" t="s">
+      <c r="A65" s="81" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
+      <c r="A66" s="11"/>
     </row>
     <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="81" t="s">
+      <c r="A67" s="80" t="s">
         <v>457</v>
       </c>
       <c r="B67" t="s">
@@ -5817,67 +6007,67 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="82" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="82" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="82" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="82" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="82" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="82" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="82" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="82" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="82" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="82" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="81" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="55" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="83" t="s">
         <v>478</v>
       </c>
       <c r="B80" t="s">
@@ -5885,46 +6075,46 @@
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="85" t="s">
+      <c r="A81" s="84" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="85" t="s">
+      <c r="A82" s="84" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="84" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="84" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="86" t="s">
+      <c r="A85" s="85" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="B134" s="12"/>
+      <c r="B134" s="11"/>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="11" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="11" t="s">
         <v>349</v>
       </c>
       <c r="B136" t="s">
@@ -5932,484 +6122,484 @@
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="11" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="11" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
     </row>
     <row r="141" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
     </row>
     <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="B142" s="67"/>
+      <c r="B142" s="66"/>
     </row>
     <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="B143" s="69" t="s">
+      <c r="B143" s="68" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="70" t="s">
+      <c r="A144" s="69" t="s">
         <v>369</v>
       </c>
-      <c r="B144" s="71" t="s">
+      <c r="B144" s="70" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="73"/>
-      <c r="B145" s="73"/>
+      <c r="A145" s="72"/>
+      <c r="B145" s="72"/>
     </row>
     <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="74" t="s">
+      <c r="A146" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="11"/>
     </row>
     <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="11" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="11" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="B149" s="72" t="s">
+      <c r="B149" s="71" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A150" s="72"/>
-      <c r="B150" s="12"/>
+      <c r="A150" s="71"/>
+      <c r="B150" s="11"/>
     </row>
     <row r="151" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
     </row>
     <row r="152" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
     </row>
     <row r="153" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
     </row>
     <row r="154" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
     </row>
     <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
     </row>
     <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
     </row>
     <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
     </row>
     <row r="158" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
     </row>
     <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
     </row>
     <row r="160" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
     </row>
     <row r="161" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
     </row>
     <row r="162" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
     </row>
     <row r="163" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
     </row>
     <row r="164" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
     </row>
     <row r="165" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
     </row>
     <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B167" s="12"/>
+      <c r="B167" s="11"/>
     </row>
     <row r="168" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
     </row>
     <row r="169" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
     </row>
     <row r="170" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="74" t="s">
         <v>409</v>
       </c>
-      <c r="B170" s="12"/>
+      <c r="B170" s="11"/>
     </row>
     <row r="171" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="11" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="11" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="11" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B175" s="12"/>
+      <c r="B175" s="11"/>
     </row>
     <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A177" s="75" t="s">
+      <c r="A177" s="74" t="s">
         <v>387</v>
       </c>
-      <c r="B177" s="12"/>
+      <c r="B177" s="11"/>
     </row>
     <row r="178" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="11" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="11" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A180" s="12" t="s">
+      <c r="A180" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="11" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="11" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A182" s="72" t="s">
+      <c r="A182" s="71" t="s">
         <v>392</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="11" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="11" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A185" s="75" t="s">
+      <c r="A185" s="74" t="s">
         <v>400</v>
       </c>
-      <c r="B185" s="12"/>
+      <c r="B185" s="11"/>
     </row>
     <row r="186" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="12" t="s">
+      <c r="A186" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="11" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A187" s="12" t="s">
+      <c r="A187" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="11" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A188" s="12" t="s">
+      <c r="A188" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="11" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
     </row>
     <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A190" s="12" t="s">
+      <c r="A190" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B190" s="12"/>
+      <c r="B190" s="11"/>
     </row>
     <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A191" s="12" t="s">
+      <c r="A191" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B191" s="12"/>
+      <c r="B191" s="11"/>
     </row>
     <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A192" s="12" t="s">
+      <c r="A192" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="B192" s="12"/>
+      <c r="B192" s="11"/>
     </row>
     <row r="193" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
     </row>
     <row r="194" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
     </row>
     <row r="195" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
     </row>
     <row r="196" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
     </row>
     <row r="197" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
     </row>
     <row r="198" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
     </row>
     <row r="199" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
     </row>
     <row r="200" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
     </row>
     <row r="201" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
     </row>
     <row r="202" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
     </row>
     <row r="203" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
     </row>
     <row r="204" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
     </row>
     <row r="205" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
     </row>
     <row r="206" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
     </row>
     <row r="207" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
     </row>
     <row r="208" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
     </row>
     <row r="209" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
     </row>
     <row r="210" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
     </row>
     <row r="211" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
     </row>
     <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
     </row>
     <row r="213" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
     </row>
     <row r="214" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
     </row>
     <row r="215" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
     </row>
     <row r="216" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
     </row>
     <row r="217" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
     </row>
     <row r="218" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
     </row>
     <row r="219" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
     </row>
     <row r="220" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
     </row>
     <row r="221" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
     </row>
     <row r="222" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
     </row>
     <row r="223" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
     </row>
     <row r="224" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
     </row>
     <row r="225" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
     </row>
     <row r="226" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
     </row>
     <row r="227" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
     </row>
     <row r="228" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
     </row>
     <row r="229" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3D194-50E2-43EA-9373-88C742F37746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220EFA6-5E5A-4D1A-AA93-A440DFC0FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
-    <sheet name="CSS" sheetId="2" r:id="rId2"/>
-    <sheet name="GitHub" sheetId="8" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="4" r:id="rId4"/>
-    <sheet name="GIMP" sheetId="3" r:id="rId5"/>
-    <sheet name="JavaScript" sheetId="5" r:id="rId6"/>
-    <sheet name="JS img" sheetId="7" r:id="rId7"/>
+    <sheet name="PHP" sheetId="9" r:id="rId2"/>
+    <sheet name="CSS" sheetId="2" r:id="rId3"/>
+    <sheet name="GitHub" sheetId="8" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId5"/>
+    <sheet name="GIMP" sheetId="3" r:id="rId6"/>
+    <sheet name="JavaScript" sheetId="5" r:id="rId7"/>
+    <sheet name="JS img" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="710">
   <si>
     <t>Descrição</t>
   </si>
@@ -890,9 +891,6 @@
     <t>Na parte de envelopamento para envelopar todas as letras</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>*{</t>
   </si>
   <si>
@@ -1881,9 +1879,6 @@
     <t>para não aparecer caixa de sugestão no input</t>
   </si>
   <si>
-    <t> &lt;form action="cadastro.php"&gt;</t>
-  </si>
-  <si>
     <t>para fazer ligação com php</t>
   </si>
   <si>
@@ -1906,13 +1901,373 @@
   </si>
   <si>
     <t>Não aparece os dados na url / pode ser usador mais de 3 mil bytes/ pode ser usado para senha/ cartao de credito/ e enviar arquivos, fotos.</t>
+  </si>
+  <si>
+    <t>&lt;form action="cadastro.php"&gt;</t>
+  </si>
+  <si>
+    <t>placeholder="Nome"</t>
+  </si>
+  <si>
+    <t>required ira obrigar a fazer o preenchimento do input</t>
+  </si>
+  <si>
+    <t>&lt;input minlength="5" maxlength="15"&gt;</t>
+  </si>
+  <si>
+    <t>minlength tamanho minino de carecteres  /  maxlength tamanho maximo de carecteres</t>
+  </si>
+  <si>
+    <t>&lt;input required&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input size="10"&gt;</t>
+  </si>
+  <si>
+    <t>tamanho da caixa</t>
+  </si>
+  <si>
+    <t>&lt;input autocomplete="username"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input autocomplete="current-password"&gt;</t>
+  </si>
+  <si>
+    <t>Ira sugerir usar a senha anteriores usado no navegador</t>
+  </si>
+  <si>
+    <t>&lt;input type="reset" value="Limpar"&gt;</t>
+  </si>
+  <si>
+    <t>Botao de limpar formulario</t>
+  </si>
+  <si>
+    <t>&lt;input  &gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="number" min="0" max="10" step="0.1"&gt;</t>
+  </si>
+  <si>
+    <t>min numero minino / max pode colocar a te determinado valor / step podera colocar numero depois da virgula</t>
+  </si>
+  <si>
+    <t>&lt;input type="month"&gt;</t>
+  </si>
+  <si>
+    <t>ira mostrar o mês e o ano</t>
+  </si>
+  <si>
+    <t>&lt;input value="5" &gt;</t>
+  </si>
+  <si>
+    <t>já ira aparecer no formulario o numero 5</t>
+  </si>
+  <si>
+    <t>&lt;input  value="2020-07"&gt;</t>
+  </si>
+  <si>
+    <t>Já ira aparecer preenchido no formulario ano 2020 mês julho</t>
+  </si>
+  <si>
+    <t>&lt;fieldset&gt;&lt;/fieldset&gt;</t>
+  </si>
+  <si>
+    <t>cria uma borda no bormulario</t>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>    if(isset($_POST['submit']))</t>
+  </si>
+  <si>
+    <t>        print_r('&lt;br&gt;');</t>
+  </si>
+  <si>
+    <t>        print_r($_POST['email']);</t>
+  </si>
+  <si>
+    <t>        print_r($_POST['telefone']);</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?&gt;   </t>
+  </si>
+  <si>
+    <t>ira aparecer os dados do formulario na mesm apagina</t>
+  </si>
+  <si>
+    <t>    $dbUsername = "root";</t>
+  </si>
+  <si>
+    <t>    $dbPassword = "";</t>
+  </si>
+  <si>
+    <t>    $dbName = "formulario";</t>
+  </si>
+  <si>
+    <t>    $dbHost = "Localhost";</t>
+  </si>
+  <si>
+    <t>$conexao = new mysqli($dbHost, $dbUsername, $dbPassword, $dbName);</t>
+  </si>
+  <si>
+    <t>conexao com banco de dados</t>
+  </si>
+  <si>
+    <t>if($conexao-&gt;connect_errno)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        echo "Erro não funciona";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    else{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        echo "Conexao efetuada com sucesso";</t>
+  </si>
+  <si>
+    <t>junto com o codigo acima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comando para ver se o banco de dados esta funcionando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print_r('&lt;br&gt;'); </t>
+  </si>
+  <si>
+    <t>QUEBRA DI LINHA</t>
+  </si>
+  <si>
+    <t>QUEBRA DE LINHA</t>
+  </si>
+  <si>
+    <t>shift+alt+a</t>
+  </si>
+  <si>
+    <t>comenta as linha selecionada e descomenta</t>
+  </si>
+  <si>
+    <t>print_r('Nome:' . $_POST['nome']);</t>
+  </si>
+  <si>
+    <t>ira aparecer o 'Nome' antes do dado</t>
+  </si>
+  <si>
+    <t>        $nome = $_POST['nome'];</t>
+  </si>
+  <si>
+    <t>        $email = $_POST['email'];</t>
+  </si>
+  <si>
+    <t>        $telefone = $_POST['telefone'];</t>
+  </si>
+  <si>
+    <t>        $genero = $_POST['genero'];</t>
+  </si>
+  <si>
+    <t>        $data_nasc = $_POST['data_nascimento'];</t>
+  </si>
+  <si>
+    <t>        $cidade = $_POST['cidade'];</t>
+  </si>
+  <si>
+    <t>        $estado = $_POST['estado'];</t>
+  </si>
+  <si>
+    <t>        $endereco = $_POST['cidade'];</t>
+  </si>
+  <si>
+    <t>*vai vericar o botao de enviar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligar o arquivo banco de dados.php ao formulario </t>
+  </si>
+  <si>
+    <t>if(isset($_POST['submit']))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include_once('config.php'); </t>
+  </si>
+  <si>
+    <t>para cada name tem que criar uma variavel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        data_nasc, cidade, estado,endereco) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       $result = mysqli_query($conexao, "INSERT INTO usuarios(nome, email, telefone, sexo,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     '$cidade', '$estado', '$endereco')");</t>
+  </si>
+  <si>
+    <t>as variaveis sempre tem que ser aspas simples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    VALUES ('$nome', '$email', '$telefone', '$genero', '$data_nasc', </t>
+  </si>
+  <si>
+    <t>variavel $conexão tem que ser a mesma do arquivo.php do banco de bados</t>
+  </si>
+  <si>
+    <t>padding</t>
+  </si>
+  <si>
+    <t>eo espaçamento das borda para conteudo</t>
+  </si>
+  <si>
+    <t>background-image: linear-gradient(45deg, cyan, yellow);</t>
+  </si>
+  <si>
+    <t>    print_r($_REQUEST);</t>
+  </si>
+  <si>
+    <t>verificar se a tela de login esta funcionando</t>
+  </si>
+  <si>
+    <t>    else{</t>
+  </si>
+  <si>
+    <t>        //não acessa retorna meu login</t>
+  </si>
+  <si>
+    <t>        header('Location: login.php');</t>
+  </si>
+  <si>
+    <t>ira voltar para tela de login</t>
+  </si>
+  <si>
+    <t>        //acessa o sistema</t>
+  </si>
+  <si>
+    <t>$idade = 3;</t>
+  </si>
+  <si>
+    <t>variavel sempre com o sinal $</t>
+  </si>
+  <si>
+    <t>Não precisar informar o tipo de dado o PHP já sabe o dado altomaticamente</t>
+  </si>
+  <si>
+    <t>typecast</t>
+  </si>
+  <si>
+    <t>força a variavel ter um determinado tipo</t>
+  </si>
+  <si>
+    <t>$no = (int)"Gustavo ";</t>
+  </si>
+  <si>
+    <t> $nome = "Gustavo ";</t>
+  </si>
+  <si>
+    <t>            $idade = 37;</t>
+  </si>
+  <si>
+    <t>            echo "$nome tem $idade anos"</t>
+  </si>
+  <si>
+    <t>            //echo $nome. " tem ". $idade. " anos"</t>
+  </si>
+  <si>
+    <t>tem que colocar as aspas duas para o navegador interpretar as variaveis</t>
+  </si>
+  <si>
+    <t>$n1 = 3;</t>
+  </si>
+  <si>
+    <t>    $n2 = 2;</t>
+  </si>
+  <si>
+    <t>    $m = ($n1 + $n2) / 2;</t>
+  </si>
+  <si>
+    <t>    echo "A soma vale ". ($n1 + $n2);</t>
+  </si>
+  <si>
+    <t>    echo "&lt;br&gt;A subtração vale ". ($n1 - $n2);</t>
+  </si>
+  <si>
+    <t>    echo "&lt;br/&gt;A Multiplicação vale ". ($n1 * $n2);</t>
+  </si>
+  <si>
+    <t>    echo "&lt;br/&gt;A divisão vale ". ($n1 / $n2);</t>
+  </si>
+  <si>
+    <t>    echo "&lt;br/&gt;O modulo vale ". ($n1 % $n2); //resto da divisão</t>
+  </si>
+  <si>
+    <t>    echo "&lt;br&gt;A media vale $m"</t>
+  </si>
+  <si>
+    <t>$n1 = $_GET["a"];</t>
+  </si>
+  <si>
+    <t>    $n2 = $_GET["b"];</t>
+  </si>
+  <si>
+    <t>    echo "&lt;h2&gt;Valores recebidos: $n1 e $n2&lt;/h2&gt;";</t>
+  </si>
+  <si>
+    <t>ira pegar o valor direto da url</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PHP/Banco de dados</t>
+  </si>
+  <si>
+    <t> &lt;form action="01valor.php" method="get"&gt;</t>
+  </si>
+  <si>
+    <t>        valor: &lt;input type="number" name="v" &gt;</t>
+  </si>
+  <si>
+    <t>            &lt;input type="submit" value="Calcular Raiz"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>        $valor = $_GET["v"];</t>
+  </si>
+  <si>
+    <t>        echo "o valor enviado foi $valor";</t>
+  </si>
+  <si>
+    <t>    ?&gt;</t>
+  </si>
+  <si>
+    <t>metodo para enviar o vormulario para php</t>
+  </si>
+  <si>
+    <t>sqrt()</t>
+  </si>
+  <si>
+    <t>raiz quadrada</t>
+  </si>
+  <si>
+    <t>echo "a raz de  $valor e igual a " . number_format($rq,2);</t>
+  </si>
+  <si>
+    <t>number format casas decimais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2072,8 +2427,16 @@
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2152,8 +2515,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2415,12 +2784,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2640,6 +3083,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="17"/>
     </xf>
@@ -2649,7 +3121,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3124,10 +3608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,383 +3636,377 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+    </row>
+    <row r="12" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>35</v>
+      <c r="A18" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>56</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>54</v>
+      <c r="A26" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B40" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="88" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="88" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B47" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="49" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
+      <c r="B49" s="11"/>
+    </row>
+    <row r="52" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="B53" s="90" t="s">
         <v>512</v>
       </c>
-      <c r="B45" s="90" t="s">
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+    </row>
+    <row r="55" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-    </row>
-    <row r="47" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
+      <c r="B55" s="90" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
         <v>515</v>
       </c>
-      <c r="B47" s="90" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
+      <c r="B56" s="90" t="s">
         <v>516</v>
       </c>
-      <c r="B48" s="90" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+    </row>
+    <row r="57" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="B58" s="90" t="s">
         <v>535</v>
       </c>
-      <c r="B50" s="90" t="s">
+    </row>
+    <row r="59" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>537</v>
+      </c>
+      <c r="B59" s="90" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
-        <v>538</v>
-      </c>
-      <c r="B51" s="90" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-    </row>
-    <row r="53" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+    <row r="60" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="55"/>
+    </row>
+    <row r="61" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="B61" s="90" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
         <v>545</v>
       </c>
-      <c r="B53" s="90" t="s">
+      <c r="B62" s="90" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
-        <v>546</v>
-      </c>
-      <c r="B54" s="90" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+      <c r="B63" s="90" t="s">
         <v>549</v>
       </c>
-      <c r="B55" s="90" t="s">
+    </row>
+    <row r="64" spans="1:4" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
+      <c r="B64" s="90" t="s">
         <v>551</v>
-      </c>
-      <c r="B56" s="90" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-    </row>
-    <row r="58" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-    </row>
-    <row r="59" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-    </row>
-    <row r="60" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="85" t="s">
-        <v>541</v>
-      </c>
-      <c r="B61" s="90" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-    </row>
-    <row r="63" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="83" t="s">
-        <v>542</v>
-      </c>
-      <c r="B63" s="90" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="85" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
@@ -3538,662 +4016,648 @@
       <c r="A66" s="55"/>
     </row>
     <row r="67" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="83" t="s">
-        <v>528</v>
-      </c>
-      <c r="B67" s="90" t="s">
-        <v>529</v>
-      </c>
+      <c r="A67" s="55"/>
     </row>
     <row r="68" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="84" t="s">
-        <v>525</v>
+      <c r="A68" s="83" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="84" t="s">
-        <v>526</v>
+      <c r="A69" s="85" t="s">
+        <v>540</v>
+      </c>
+      <c r="B69" s="90" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="85" t="s">
-        <v>527</v>
-      </c>
+      <c r="A70" s="55"/>
     </row>
     <row r="71" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
+      <c r="A71" s="83" t="s">
+        <v>541</v>
+      </c>
+      <c r="B71" s="90" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="72" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="83" t="s">
-        <v>524</v>
-      </c>
-      <c r="B72" s="90" t="s">
-        <v>533</v>
+      <c r="A72" s="85" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="85" t="s">
-        <v>523</v>
-      </c>
+      <c r="A73" s="55"/>
     </row>
     <row r="74" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
     </row>
     <row r="75" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="B75" s="90" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="84" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="84" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="85" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="55"/>
+    </row>
+    <row r="80" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="83" t="s">
+        <v>523</v>
+      </c>
+      <c r="B80" s="90" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="85" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+    </row>
+    <row r="83" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="83" t="s">
+        <v>529</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="85" t="s">
         <v>530</v>
       </c>
-      <c r="B75" s="90" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="85" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
-    </row>
-    <row r="78" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="55" t="s">
+    </row>
+    <row r="85" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="55"/>
+    </row>
+    <row r="86" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="55" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="55" t="s">
+        <v>554</v>
+      </c>
+      <c r="B87" s="90" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="79" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="55" t="s">
-        <v>555</v>
-      </c>
-      <c r="B79" s="90" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="55" t="s">
+    <row r="88" spans="1:2" s="90" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="55" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="26" t="s">
+    <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B89" s="11" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="55" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="11"/>
+        <v>111</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A93" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B93" s="11"/>
+        <v>113</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A94" s="27" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="11"/>
     </row>
     <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A95" s="27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B95" s="11"/>
     </row>
     <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B97" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="B97" s="55" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" t="s">
-        <v>520</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B100" s="11"/>
     </row>
     <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B101" s="11"/>
     </row>
     <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A102" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="28" t="s">
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B111" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="29" t="s">
+    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="12"/>
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="B113" s="32" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B106" s="11"/>
-    </row>
-    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" s="11"/>
-    </row>
-    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B108" s="11"/>
-    </row>
-    <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B109" s="11"/>
-    </row>
-    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B110" s="11"/>
-    </row>
-    <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="11"/>
-    </row>
-    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B112" s="11"/>
-    </row>
-    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B113" s="11"/>
     </row>
     <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B114" s="11"/>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="11"/>
-    </row>
-    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="31" t="s">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B116" s="11"/>
-    </row>
-    <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
-      <c r="B117" s="11"/>
-    </row>
-    <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="12"/>
-      <c r="B118" s="11"/>
-    </row>
-    <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-    </row>
-    <row r="120" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A120" s="6" t="s">
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="12"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A126" s="12"/>
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A128" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B129" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
+    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
+    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B131" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="11" t="s">
+    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B132" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
+    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
+    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B134" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A130" s="6" t="s">
+    <row r="138" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A138" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="17" t="s">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B139" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="13" t="s">
+    <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A140" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B132" s="14">
+      <c r="B140" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A133" s="13" t="s">
+    <row r="141" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A141" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="14">
+      <c r="B141" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A134" s="13" t="s">
+    <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A142" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B134" s="15">
+      <c r="B142" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A135" s="16" t="s">
+    <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B135" s="11"/>
-    </row>
-    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-    </row>
-    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-    </row>
-    <row r="141" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="6" t="s">
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="149" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A149" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B150" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A143" s="17" t="s">
+    <row r="151" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A151" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B143" s="11"/>
-    </row>
-    <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A144" s="13" t="s">
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A152" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B152" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A145" s="13" t="s">
+    <row r="153" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A153" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B145" s="11"/>
-    </row>
-    <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A146" s="13" t="s">
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B146" s="11"/>
-    </row>
-    <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A147" s="13" t="s">
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A155" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="11"/>
-    </row>
-    <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A148" s="16" t="s">
+      <c r="B155" s="11"/>
+    </row>
+    <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B148" s="11"/>
-    </row>
-    <row r="153" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A153" s="6" t="s">
+      <c r="B156" s="11"/>
+    </row>
+    <row r="161" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A161" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A154" s="11" t="s">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B154" s="11"/>
-    </row>
-    <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A163" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B155" s="11"/>
-    </row>
-    <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A156" s="13" t="s">
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A164" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B164" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A157" s="13" t="s">
+    <row r="165" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A165" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B165" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A158" s="13" t="s">
+    <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A166" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B158" s="11"/>
-    </row>
-    <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A159" s="16" t="s">
+      <c r="B166" s="11"/>
+    </row>
+    <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A167" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B159" s="11"/>
-    </row>
-    <row r="160" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-    </row>
-    <row r="161" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A161" s="18" t="s">
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+    </row>
+    <row r="169" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A169" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B161" s="19"/>
-    </row>
-    <row r="162" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A162" s="20" t="s">
+      <c r="B169" s="19"/>
+    </row>
+    <row r="170" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A170" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B170" s="21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A165" s="6" t="s">
+    <row r="173" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A174" s="46" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A166" s="46" t="s">
+      <c r="B174" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B166" s="11" t="s">
+    </row>
+    <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A175" s="46"/>
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" s="55" t="s">
+        <v>561</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A177" s="46"/>
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A178" s="43" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A167" s="46"/>
-      <c r="B167" s="11"/>
-    </row>
-    <row r="168" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A168" s="55" t="s">
-        <v>562</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A169" s="46"/>
-      <c r="B169" s="11"/>
-    </row>
-    <row r="170" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A170" s="43" t="s">
+      <c r="B178" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A179" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="B170" s="11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A171" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="B171" s="11"/>
-    </row>
-    <row r="172" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A172" s="46"/>
-      <c r="B172" s="11"/>
-    </row>
-    <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A173" s="55" t="s">
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A180" s="46"/>
+      <c r="B180" s="11"/>
+    </row>
+    <row r="181" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A181" s="55" t="s">
+        <v>566</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="B173" s="11" t="s">
+    </row>
+    <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+    </row>
+    <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A183" s="55" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-    </row>
-    <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A175" s="55" t="s">
+      <c r="B183" s="11" t="s">
         <v>569</v>
-      </c>
-      <c r="B175" s="11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-    </row>
-    <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-    </row>
-    <row r="178" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A178" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="B178" s="98"/>
-    </row>
-    <row r="179" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A179" s="36" t="s">
-        <v>580</v>
-      </c>
-      <c r="B179" s="89"/>
-    </row>
-    <row r="180" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A180" s="36" t="s">
-        <v>581</v>
-      </c>
-      <c r="B180" s="89" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A181" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="B181" s="11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A182" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A183" s="36" t="s">
-        <v>583</v>
-      </c>
-      <c r="B183" s="11" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -4201,379 +4665,568 @@
       <c r="B184" s="11"/>
     </row>
     <row r="185" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A185" s="92" t="s">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+    </row>
+    <row r="186" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A186" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B186" s="95"/>
+    </row>
+    <row r="187" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A187" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="B187" s="89"/>
+    </row>
+    <row r="188" spans="1:2" s="90" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B188" s="89" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A189" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A190" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A191" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A192" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A193" s="46" t="s">
+        <v>591</v>
+      </c>
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A194" s="46" t="s">
+        <v>593</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A195" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A197" s="55" t="s">
+        <v>598</v>
+      </c>
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A198" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A199" s="55" t="s">
+        <v>604</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A200" s="55" t="s">
+        <v>606</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A201" s="55" t="s">
+        <v>608</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A202" s="55" t="s">
+        <v>610</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A203" s="55" t="s">
+        <v>612</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A204" s="55"/>
+      <c r="B204" s="11"/>
+    </row>
+    <row r="205" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A205" s="55"/>
+      <c r="B205" s="11"/>
+    </row>
+    <row r="206" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A206" s="55"/>
+      <c r="B206" s="11"/>
+    </row>
+    <row r="207" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A207" s="55" t="s">
+        <v>603</v>
+      </c>
+      <c r="B207" s="11"/>
+    </row>
+    <row r="208" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A208" s="55"/>
+      <c r="B208" s="11"/>
+    </row>
+    <row r="209" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A209" s="55"/>
+      <c r="B209" s="11"/>
+    </row>
+    <row r="210" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A210" s="55"/>
+      <c r="B210" s="11"/>
+    </row>
+    <row r="211" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A211" s="55"/>
+      <c r="B211" s="11"/>
+    </row>
+    <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A212" s="55"/>
+      <c r="B212" s="11"/>
+    </row>
+    <row r="213" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A213" s="36"/>
+      <c r="B213" s="11"/>
+    </row>
+    <row r="214" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+    </row>
+    <row r="215" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A215" s="92" t="s">
+        <v>583</v>
+      </c>
+      <c r="B215" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B185" s="11" t="s">
+    </row>
+    <row r="216" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A216" s="94" t="s">
+        <v>584</v>
+      </c>
+      <c r="B216" s="11"/>
+    </row>
+    <row r="217" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+    </row>
+    <row r="218" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A218" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A219" s="36" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A186" s="94" t="s">
-        <v>586</v>
-      </c>
-      <c r="B186" s="11"/>
-    </row>
-    <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-    </row>
-    <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A188" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A189" s="36" t="s">
+      <c r="B219" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="B189" s="11" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-    </row>
-    <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-    </row>
-    <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-    </row>
-    <row r="193" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-    </row>
-    <row r="194" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-    </row>
-    <row r="195" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-    </row>
-    <row r="196" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-    </row>
-    <row r="197" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-    </row>
-    <row r="198" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A198" s="95" t="s">
+    </row>
+    <row r="220" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+    </row>
+    <row r="221" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+    </row>
+    <row r="222" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+    </row>
+    <row r="223" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+    </row>
+    <row r="224" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+    </row>
+    <row r="225" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+    </row>
+    <row r="226" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+    </row>
+    <row r="227" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+    </row>
+    <row r="228" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A228" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="95"/>
-      <c r="C198" s="95"/>
-      <c r="D198" s="95"/>
-    </row>
-    <row r="199" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A199" s="11" t="s">
+      <c r="B228" s="106"/>
+      <c r="C228" s="106"/>
+      <c r="D228" s="106"/>
+    </row>
+    <row r="229" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A229" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B229" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A200" s="11" t="s">
+    <row r="230" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A230" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B230" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A201" s="11" t="s">
+    <row r="231" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A231" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B231" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A202" s="11" t="s">
+    <row r="232" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A232" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B232" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A203" s="11" t="s">
+    <row r="233" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A233" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B233" s="11" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B204" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A209" s="3" t="s">
+    <row r="234" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A234" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A239" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A210" s="11" t="s">
+      <c r="B239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A240" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B240" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A211" s="11" t="s">
+    <row r="241" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A241" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B241" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A212" s="11" t="s">
+    <row r="242" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A242" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B242" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="5" t="s">
+    <row r="245" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A245" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B215" s="23"/>
-    </row>
-    <row r="216" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A216" s="4" t="s">
+      <c r="B245" s="23"/>
+    </row>
+    <row r="246" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A246" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B246" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A222" s="7" t="s">
+    <row r="252" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A252" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B222" s="8"/>
-    </row>
-    <row r="223" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A223" s="11" t="s">
+      <c r="B252" s="8"/>
+    </row>
+    <row r="253" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A253" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A224" s="11" t="s">
+    <row r="254" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A254" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A225" s="11" t="s">
+    <row r="255" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A255" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A226" s="11" t="s">
+    <row r="256" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A256" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A227" s="11" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A228" s="11" t="s">
+    <row r="257" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A257" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A258" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="91" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="B259" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="91" t="s">
         <v>564</v>
       </c>
-      <c r="B229" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="91" t="s">
+      <c r="B260" t="s">
         <v>565</v>
       </c>
-      <c r="B230" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A231" s="11"/>
-    </row>
-    <row r="232" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A232" s="11"/>
-    </row>
-    <row r="233" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A233" s="11"/>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="38" t="s">
+    </row>
+    <row r="261" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A261" s="11"/>
+    </row>
+    <row r="262" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A262" s="11"/>
+    </row>
+    <row r="263" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A263" s="11"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="38" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="39" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="40" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="40" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="40" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="40" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="40" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="40"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="40" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="40" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="40" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="40" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="40" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="41" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="41" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="40" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="40" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="40" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="40" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="40" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="40" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="40" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="40" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="42" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="42" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="36"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="36"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="36"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="36"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="36"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="36"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="36"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="36"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="36"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="36"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="36"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="36"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="36" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="36"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="36"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="36"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="36"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="36"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="36"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="36"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="36"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="36"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="36"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="36"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="36"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="36" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="36"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="36"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="36"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="36"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="36"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="36"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="36"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="36"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="37"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="37"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="36"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="36" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="36"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="36"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="36"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="36"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="36"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="36"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="36"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="36"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="37"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="37"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="36"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="36" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A228:D228"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4581,11 +5234,747 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F401-6364-4244-8C7B-BF6A8571BED1}">
+  <dimension ref="A1:B127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>678</v>
+      </c>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>706</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="102" t="s">
+        <v>679</v>
+      </c>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="103" t="s">
+        <v>680</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="103" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="104" t="s">
+        <v>682</v>
+      </c>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="102" t="s">
+        <v>684</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="103" t="s">
+        <v>685</v>
+      </c>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="103" t="s">
+        <v>686</v>
+      </c>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="103" t="s">
+        <v>687</v>
+      </c>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="103" t="s">
+        <v>688</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="103" t="s">
+        <v>689</v>
+      </c>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="103" t="s">
+        <v>690</v>
+      </c>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="103" t="s">
+        <v>691</v>
+      </c>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="104" t="s">
+        <v>692</v>
+      </c>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="102" t="s">
+        <v>693</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="103" t="s">
+        <v>694</v>
+      </c>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="103" t="s">
+        <v>695</v>
+      </c>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="103" t="s">
+        <v>686</v>
+      </c>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="103" t="s">
+        <v>687</v>
+      </c>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="103" t="s">
+        <v>688</v>
+      </c>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="103" t="s">
+        <v>689</v>
+      </c>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="103" t="s">
+        <v>690</v>
+      </c>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="103" t="s">
+        <v>691</v>
+      </c>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="104" t="s">
+        <v>692</v>
+      </c>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="49"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="49"/>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="49"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="49"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="49"/>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="49"/>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="49"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="49"/>
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="49"/>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="49"/>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="49"/>
+      <c r="B53" s="11"/>
+    </row>
+    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="49"/>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="49"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="49"/>
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="49"/>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="49"/>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="49"/>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="49"/>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A63" s="96" t="s">
+        <v>697</v>
+      </c>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="97" t="s">
+        <v>626</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="98" t="s">
+        <v>623</v>
+      </c>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="98" t="s">
+        <v>624</v>
+      </c>
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="98" t="s">
+        <v>625</v>
+      </c>
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="101" t="s">
+        <v>627</v>
+      </c>
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="49"/>
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="97" t="s">
+        <v>629</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="98" t="s">
+        <v>630</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="98" t="s">
+        <v>631</v>
+      </c>
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="98" t="s">
+        <v>632</v>
+      </c>
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="98" t="s">
+        <v>633</v>
+      </c>
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="98" t="s">
+        <v>634</v>
+      </c>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="101" t="s">
+        <v>632</v>
+      </c>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="49"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="97" t="s">
+        <v>614</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="98" t="s">
+        <v>617</v>
+      </c>
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="98" t="s">
+        <v>615</v>
+      </c>
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="105" t="s">
+        <v>642</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="98" t="s">
+        <v>637</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A84" s="98" t="s">
+        <v>619</v>
+      </c>
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="98" t="s">
+        <v>620</v>
+      </c>
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="101" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="97" t="s">
+        <v>654</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="98" t="s">
+        <v>655</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="98" t="s">
+        <v>644</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="98" t="s">
+        <v>645</v>
+      </c>
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="98" t="s">
+        <v>646</v>
+      </c>
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="98" t="s">
+        <v>647</v>
+      </c>
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="98" t="s">
+        <v>649</v>
+      </c>
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="98" t="s">
+        <v>650</v>
+      </c>
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="98" t="s">
+        <v>651</v>
+      </c>
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="98"/>
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="99" t="s">
+        <v>658</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="98" t="s">
+        <v>657</v>
+      </c>
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="100" t="s">
+        <v>661</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="98" t="s">
+        <v>659</v>
+      </c>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="101" t="s">
+        <v>616</v>
+      </c>
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="46" t="s">
+        <v>614</v>
+      </c>
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="102" t="s">
+        <v>654</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="103" t="s">
+        <v>615</v>
+      </c>
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="103" t="s">
+        <v>672</v>
+      </c>
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="103" t="s">
+        <v>616</v>
+      </c>
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="103" t="s">
+        <v>668</v>
+      </c>
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="103" t="s">
+        <v>669</v>
+      </c>
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="103" t="s">
+        <v>670</v>
+      </c>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="104" t="s">
+        <v>616</v>
+      </c>
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="109" t="s">
+        <v>698</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="110" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="110" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="110" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="111"/>
+    </row>
+    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="112" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="112" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="112" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="113" t="s">
+        <v>704</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF404A17-505C-47C1-BA5C-9EC05B6288D3}">
-  <dimension ref="A2:E146"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,40 +5983,55 @@
     <col min="2" max="2" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>173</v>
       </c>
+      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>174</v>
       </c>
+      <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>175</v>
       </c>
+      <c r="B4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>176</v>
       </c>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>177</v>
       </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>178</v>
       </c>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>179</v>
       </c>
+      <c r="B8" s="11"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
@@ -4912,16 +6316,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="96"/>
+      <c r="B50" s="107"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="97"/>
+      <c r="B51" s="108"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
@@ -4963,21 +6367,21 @@
     </row>
     <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" s="11"/>
     </row>
     <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B59" s="11"/>
     </row>
@@ -4987,54 +6391,54 @@
     </row>
     <row r="61" spans="1:2" s="52" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A61" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="44" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B64" s="11"/>
     </row>
     <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B65" s="11"/>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B68" s="11"/>
     </row>
@@ -5044,18 +6448,18 @@
     </row>
     <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5064,29 +6468,29 @@
     </row>
     <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B76" s="11"/>
     </row>
@@ -5096,37 +6500,37 @@
     </row>
     <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B78" s="11"/>
     </row>
     <row r="80" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5140,12 +6544,12 @@
         <v>164</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>215</v>
@@ -5153,56 +6557,56 @@
     </row>
     <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A92" s="55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B92" s="11"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="B93" t="s">
         <v>506</v>
-      </c>
-      <c r="B93" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
@@ -5212,18 +6616,18 @@
     </row>
     <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5235,79 +6639,79 @@
     </row>
     <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B107" s="50" t="s">
         <v>299</v>
-      </c>
-      <c r="B107" s="50" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A108" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A110" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A113" s="52" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="B114" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A115" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5315,39 +6719,39 @@
         <v>208</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A117" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A118" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B118" s="11" t="s">
         <v>321</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A119" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B120" s="11" t="s">
         <v>484</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5356,104 +6760,104 @@
     </row>
     <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A122" s="92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A123" s="93" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B123" s="11"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="94" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A127" s="86" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B128" s="11"/>
     </row>
     <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B129" s="11" t="s">
         <v>489</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A132" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="B132" s="11" t="s">
         <v>502</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A133" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A134" s="55" t="s">
+        <v>495</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>496</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="55" t="s">
+        <v>497</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="55" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="55" t="s">
+        <v>508</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>509</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5469,8 +6873,12 @@
       <c r="B140" s="11"/>
     </row>
     <row r="141" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
+      <c r="A141" s="55" t="s">
+        <v>665</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
@@ -5502,7 +6910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B3327-7546-434C-928A-931946B76D03}">
   <dimension ref="A4:B4"/>
   <sheetViews>
@@ -5518,10 +6926,10 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" t="s">
         <v>500</v>
-      </c>
-      <c r="B4" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5532,7 +6940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F03376-89E7-4D48-A526-F585631D75E0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5547,7 +6955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458971C1-FF74-46E2-98BB-BA9731C99C58}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -5570,7 +6978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC532328-B521-42C9-AA9E-F5616725D26D}">
   <dimension ref="A1:B229"/>
   <sheetViews>
@@ -5586,112 +6994,112 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" t="s">
         <v>385</v>
-      </c>
-      <c r="B2" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" t="s">
         <v>472</v>
-      </c>
-      <c r="B4" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" t="s">
         <v>475</v>
-      </c>
-      <c r="B6" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>343</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5700,18 +7108,18 @@
     </row>
     <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5720,27 +7128,27 @@
     </row>
     <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B22" s="11"/>
     </row>
@@ -5750,27 +7158,27 @@
     </row>
     <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B26" s="11"/>
     </row>
     <row r="27" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B27" s="11"/>
     </row>
@@ -5780,25 +7188,25 @@
     </row>
     <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="11"/>
     </row>
@@ -5808,34 +7216,34 @@
     </row>
     <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>430</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5844,15 +7252,15 @@
     </row>
     <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B40" s="11"/>
     </row>
@@ -5862,15 +7270,15 @@
     </row>
     <row r="42" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B43" s="11"/>
     </row>
@@ -5880,15 +7288,15 @@
     </row>
     <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B46" s="11"/>
     </row>
@@ -5898,13 +7306,13 @@
     </row>
     <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="75" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B49" s="11"/>
     </row>
@@ -5914,21 +7322,21 @@
     </row>
     <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="78" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" s="11"/>
     </row>
     <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B53" s="11"/>
     </row>
@@ -5938,29 +7346,29 @@
     </row>
     <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B56" s="11"/>
     </row>
     <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -5968,31 +7376,31 @@
     </row>
     <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6000,149 +7408,149 @@
     </row>
     <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="80" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="82" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="82" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="82" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="82" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="82" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="82" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="82" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="82" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="81" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="83" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="84" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A134" s="56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B134" s="11"/>
     </row>
     <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B136" t="s">
         <v>349</v>
-      </c>
-      <c r="B136" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" s="11" t="s">
         <v>352</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="B138" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B139" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6155,24 +7563,24 @@
     </row>
     <row r="142" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A142" s="65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B142" s="66"/>
     </row>
     <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A143" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="B143" s="68" t="s">
         <v>367</v>
-      </c>
-      <c r="B143" s="68" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="B144" s="70" t="s">
         <v>369</v>
-      </c>
-      <c r="B144" s="70" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6181,32 +7589,32 @@
     </row>
     <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A146" s="73" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B146" s="11"/>
     </row>
     <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A147" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A148" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A149" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="B149" s="71" t="s">
         <v>382</v>
-      </c>
-      <c r="B149" s="71" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6279,7 +7687,7 @@
     </row>
     <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B167" s="11"/>
     </row>
@@ -6293,108 +7701,108 @@
     </row>
     <row r="170" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A170" s="74" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B170" s="11"/>
     </row>
     <row r="171" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B175" s="11"/>
     </row>
     <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A177" s="74" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B177" s="11"/>
     </row>
     <row r="178" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A182" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A183" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6403,32 +7811,32 @@
     </row>
     <row r="185" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A185" s="74" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B185" s="11"/>
     </row>
     <row r="186" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A186" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A187" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A188" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
@@ -6437,19 +7845,19 @@
     </row>
     <row r="190" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A190" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B190" s="11"/>
     </row>
     <row r="191" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A191" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B191" s="11"/>
     </row>
     <row r="192" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A192" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B192" s="11"/>
     </row>
@@ -6607,7 +8015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2164956-CC5A-42A5-B0C5-2C58FB82D740}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Comandos HTML-CSS-JS.xlsx
+++ b/Comandos HTML-CSS-JS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Desktop\Cursos\Curso-em-video-HTML-CSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4220EFA6-5E5A-4D1A-AA93-A440DFC0FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011F1222-A1CB-4ED2-8067-7F4B4BD26463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="775">
   <si>
     <t>Descrição</t>
   </si>
@@ -1969,12 +1969,6 @@
     <t>Já ira aparecer preenchido no formulario ano 2020 mês julho</t>
   </si>
   <si>
-    <t>&lt;fieldset&gt;&lt;/fieldset&gt;</t>
-  </si>
-  <si>
-    <t>cria uma borda no bormulario</t>
-  </si>
-  <si>
     <t>&lt;?php</t>
   </si>
   <si>
@@ -2261,6 +2255,207 @@
   </si>
   <si>
     <t>number format casas decimais</t>
+  </si>
+  <si>
+    <t>date("Y")</t>
+  </si>
+  <si>
+    <t>Mostra o ano inteiro y minusculo mostra o ano só com dois numeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;input checked &gt;</t>
+  </si>
+  <si>
+    <t>deixa a caixa já marcada</t>
+  </si>
+  <si>
+    <t>&lt;fieldset&gt;  &lt;legend&gt;Operação&lt;/legend&gt;   &lt;/fieldset&gt;</t>
+  </si>
+  <si>
+    <t>cria uma borda no formulario e cria uma palavra em cima da borda</t>
+  </si>
+  <si>
+    <t>&lt;a href="javascript:history.go(-1)"&gt;voltar&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>volta a pagina anterior codigo java escript</t>
+  </si>
+  <si>
+    <t>Não pode colocar aspar dupla no echo</t>
+  </si>
+  <si>
+    <t>Pesquisar</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>do while</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>ira incluir arquivo externo caso der erro ele tentarar rodar as proxima funções</t>
+  </si>
+  <si>
+    <t>ira incluir arquivo externo caso der erro não roda nada</t>
+  </si>
+  <si>
+    <t>include_once</t>
+  </si>
+  <si>
+    <t>include_required</t>
+  </si>
+  <si>
+    <t>se o escript já foi rodado não duplicará</t>
+  </si>
+  <si>
+    <t>print_r  ou echo</t>
+  </si>
+  <si>
+    <t>escrever na tela</t>
+  </si>
+  <si>
+    <t>print_f</t>
+  </si>
+  <si>
+    <t>Mostrar o texto na tela já formatado</t>
+  </si>
+  <si>
+    <t> printf("O %s custa R$ %.2f", $p, $pr);</t>
+  </si>
+  <si>
+    <t>mostra o vetor direto na página</t>
+  </si>
+  <si>
+    <t>//var_dump($v2)</t>
+  </si>
+  <si>
+    <t>//mostrar com array tem</t>
+  </si>
+  <si>
+    <t> var_export($v2);</t>
+  </si>
+  <si>
+    <t>print_r()$v2</t>
+  </si>
+  <si>
+    <t>       echo "$r";</t>
+  </si>
+  <si>
+    <t>       $r = wordwrap($t, 5, "&lt;br/&gt;", true);</t>
+  </si>
+  <si>
+    <t> $t = "Aqui temos um texto gigante criado pelo PHP e vai mostrar função wordwrap";</t>
+  </si>
+  <si>
+    <t>quebra de linha</t>
+  </si>
+  <si>
+    <t>$txt = "curso em video";</t>
+  </si>
+  <si>
+    <t>$tamanho = strlen($txt);</t>
+  </si>
+  <si>
+    <t>ira contar os caracteres</t>
+  </si>
+  <si>
+    <t> $frase = "Eu vou estudar php";</t>
+  </si>
+  <si>
+    <t>//ira contar as palavras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        echo ($cont); </t>
+  </si>
+  <si>
+    <t>        $cont = str_word_count($frase,0);</t>
+  </si>
+  <si>
+    <t>$letra = chr(99);</t>
+  </si>
+  <si>
+    <t>       echo "A letra de codigo 99 e $letra";</t>
+  </si>
+  <si>
+    <t>para saber qual qual codigo e dar letra do teclado</t>
+  </si>
+  <si>
+    <t>$letra = "d";</t>
+  </si>
+  <si>
+    <t>       $cod = ord($letra);</t>
+  </si>
+  <si>
+    <t>       echo "A letra $letra tem codigo $cod"</t>
+  </si>
+  <si>
+    <t>mostra qual e o codigo pela letra do teclado</t>
+  </si>
+  <si>
+    <t> $nome = "ALEX FALCAO";</t>
+  </si>
+  <si>
+    <t>       echo  "Seu nome e $nome2 ";</t>
+  </si>
+  <si>
+    <t>       $nome2 =  strtolower($nome);</t>
+  </si>
+  <si>
+    <t>//Deixa o nome em minusculo</t>
+  </si>
+  <si>
+    <t>$nome = "alex falcao";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print("Seu nome é ". strtoupper($nome)); </t>
+  </si>
+  <si>
+    <t>//deixa as letras tudo maiuscula</t>
+  </si>
+  <si>
+    <t> $nome = "alex falcao";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("Seu nome é ". ucfirst($nome)); </t>
+  </si>
+  <si>
+    <t>//deixa a primeira letras em maiuscula  "a'</t>
+  </si>
+  <si>
+    <t>//Deixa as letras que esta em maiuscula em minuscula deixando sor primeira maiuscula</t>
+  </si>
+  <si>
+    <t>$nome = "alex FaLcao";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        print("Seu nome é ". ucfirst(strtolower($nome))); </t>
+  </si>
+  <si>
+    <t>&lt;pre&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;?php</t>
+  </si>
+  <si>
+    <t>      $n = array(3,5,8,2);</t>
+  </si>
+  <si>
+    <t>      print_r($n);</t>
+  </si>
+  <si>
+    <t>    &lt;/pre&gt;</t>
+  </si>
+  <si>
+    <t>colocar o resultado um em baixo do outro tag PRE</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2858,12 +3053,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3112,15 +3344,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="17"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3132,6 +3355,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="17"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3610,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,10 +3894,10 @@
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,6 +4681,14 @@
         <v>78</v>
       </c>
     </row>
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>715</v>
+      </c>
+    </row>
     <row r="138" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A138" s="6" t="s">
         <v>81</v>
@@ -4798,19 +5062,23 @@
     </row>
     <row r="203" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A203" s="55" t="s">
-        <v>612</v>
+        <v>712</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>613</v>
+        <v>713</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A204" s="55"/>
+      <c r="A204" s="36"/>
       <c r="B204" s="11"/>
     </row>
     <row r="205" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A205" s="55"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="36" t="s">
+        <v>710</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="206" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A206" s="55"/>
@@ -4917,12 +5185,12 @@
       <c r="B227" s="11"/>
     </row>
     <row r="228" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A228" s="106" t="s">
+      <c r="A228" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B228" s="106"/>
-      <c r="C228" s="106"/>
-      <c r="D228" s="106"/>
+      <c r="B228" s="111"/>
+      <c r="C228" s="111"/>
+      <c r="D228" s="111"/>
     </row>
     <row r="229" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
@@ -4966,10 +5234,10 @@
     </row>
     <row r="234" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
@@ -5235,732 +5503,1121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE1F401-6364-4244-8C7B-BF6A8571BED1}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94" customWidth="1"/>
+    <col min="1" max="1" width="100" customWidth="1"/>
     <col min="2" max="2" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
+        <v>706</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="11"/>
-    </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="46" t="s">
+        <v>716</v>
+      </c>
       <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="46" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="46" t="s">
+        <v>722</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="46" t="s">
+        <v>725</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="46" t="s">
+        <v>726</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="46" t="s">
+        <v>728</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="36" t="s">
+        <v>732</v>
+      </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="36"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="114" t="s">
+        <v>740</v>
+      </c>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="115" t="s">
+        <v>739</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="116" t="s">
+        <v>738</v>
+      </c>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="117"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="118" t="s">
+        <v>742</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="110" t="s">
+        <v>743</v>
+      </c>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="117"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="119" t="s">
+        <v>745</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A33" s="120" t="s">
+        <v>748</v>
+      </c>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="117"/>
+    </row>
+    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="119" t="s">
+        <v>749</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="121" t="s">
+        <v>750</v>
+      </c>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="117"/>
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="119" t="s">
+        <v>752</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="109" t="s">
+        <v>753</v>
+      </c>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="110" t="s">
+        <v>754</v>
+      </c>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="117"/>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="118" t="s">
+        <v>756</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="109" t="s">
+        <v>758</v>
+      </c>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="110" t="s">
+        <v>757</v>
+      </c>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="117"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="118" t="s">
+        <v>760</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="110" t="s">
+        <v>761</v>
+      </c>
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="117"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="118" t="s">
+        <v>763</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="110" t="s">
+        <v>764</v>
+      </c>
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="117"/>
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="118" t="s">
+        <v>767</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="110" t="s">
+        <v>768</v>
+      </c>
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="117"/>
+      <c r="B55" s="11"/>
+    </row>
+    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="119" t="s">
+        <v>769</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="120" t="s">
+        <v>770</v>
+      </c>
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="120" t="s">
+        <v>771</v>
+      </c>
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="120" t="s">
+        <v>772</v>
+      </c>
+      <c r="B59" s="11"/>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="120" t="s">
+        <v>702</v>
+      </c>
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="121" t="s">
+        <v>773</v>
+      </c>
+      <c r="B61" s="11"/>
+    </row>
+    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="117"/>
+      <c r="B62" s="11"/>
+    </row>
+    <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="117"/>
+      <c r="B63" s="11"/>
+    </row>
+    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="117"/>
+      <c r="B64" s="11"/>
+    </row>
+    <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="117"/>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="117"/>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="117"/>
+      <c r="B67" s="11"/>
+    </row>
+    <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="117"/>
+      <c r="B68" s="11"/>
+    </row>
+    <row r="69" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="117"/>
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="117"/>
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="117"/>
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="117"/>
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="117"/>
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="117"/>
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="117"/>
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="12"/>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="12"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="12"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="12"/>
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="102" t="s">
+        <v>677</v>
+      </c>
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="103" t="s">
+        <v>678</v>
+      </c>
+      <c r="B82" s="11"/>
+    </row>
+    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A83" s="103" t="s">
         <v>679</v>
       </c>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="103" t="s">
+      <c r="B83" s="11" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="104" t="s">
         <v>680</v>
       </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="103" t="s">
-        <v>681</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+    </row>
+    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A86" s="102" t="s">
+        <v>682</v>
+      </c>
+      <c r="B86" s="11"/>
+    </row>
+    <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="103" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="104" t="s">
-        <v>682</v>
-      </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="102" t="s">
+      <c r="B87" s="11"/>
+    </row>
+    <row r="88" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="103" t="s">
         <v>684</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="103" t="s">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="89" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="103" t="s">
         <v>685</v>
       </c>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="103" t="s">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="103" t="s">
         <v>686</v>
       </c>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="103" t="s">
+      <c r="B90" s="11"/>
+    </row>
+    <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="103" t="s">
         <v>687</v>
       </c>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="103" t="s">
+      <c r="B91" s="11"/>
+    </row>
+    <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="103" t="s">
         <v>688</v>
       </c>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="103" t="s">
+      <c r="B92" s="11"/>
+    </row>
+    <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="103" t="s">
         <v>689</v>
       </c>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="103" t="s">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="104" t="s">
         <v>690</v>
       </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="103" t="s">
+      <c r="B94" s="11"/>
+    </row>
+    <row r="95" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="49"/>
+      <c r="B95" s="11"/>
+    </row>
+    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="102" t="s">
         <v>691</v>
       </c>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="104" t="s">
+      <c r="B96" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="103" t="s">
         <v>692</v>
       </c>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="102" t="s">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A98" s="103" t="s">
         <v>693</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="103" t="s">
+        <v>684</v>
+      </c>
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="103" t="s">
+        <v>685</v>
+      </c>
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="103" t="s">
+        <v>686</v>
+      </c>
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="103" t="s">
+        <v>687</v>
+      </c>
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="103" t="s">
+        <v>688</v>
+      </c>
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="103" t="s">
+        <v>689</v>
+      </c>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="104" t="s">
+        <v>690</v>
+      </c>
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="49"/>
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="49"/>
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="49"/>
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="49"/>
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="49"/>
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="49"/>
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="49"/>
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="49"/>
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="49"/>
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="49"/>
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="49"/>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="49"/>
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="49"/>
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A119" s="49"/>
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A120" s="49"/>
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A121" s="49"/>
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A122" s="49"/>
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A123" s="49"/>
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A126" s="96" t="s">
+        <v>695</v>
+      </c>
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="97" t="s">
+        <v>624</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A129" s="98" t="s">
+        <v>621</v>
+      </c>
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A130" s="98" t="s">
+        <v>622</v>
+      </c>
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A131" s="98" t="s">
+        <v>623</v>
+      </c>
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="101" t="s">
+        <v>625</v>
+      </c>
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="49"/>
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="97" t="s">
+        <v>627</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A135" s="98" t="s">
+        <v>628</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A136" s="98" t="s">
+        <v>629</v>
+      </c>
+      <c r="B136" s="11"/>
+    </row>
+    <row r="137" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A137" s="98" t="s">
+        <v>630</v>
+      </c>
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A138" s="98" t="s">
+        <v>631</v>
+      </c>
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="98" t="s">
+        <v>632</v>
+      </c>
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="101" t="s">
+        <v>630</v>
+      </c>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="49"/>
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="97" t="s">
+        <v>612</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="98" t="s">
+        <v>615</v>
+      </c>
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A144" s="98" t="s">
+        <v>613</v>
+      </c>
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A145" s="105" t="s">
+        <v>640</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A146" s="98" t="s">
+        <v>635</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A147" s="98" t="s">
+        <v>617</v>
+      </c>
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A148" s="98" t="s">
+        <v>616</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A150" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="B150" s="11"/>
+    </row>
+    <row r="151" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="101" t="s">
+        <v>619</v>
+      </c>
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="97" t="s">
+        <v>652</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="98" t="s">
+        <v>653</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A155" s="98" t="s">
+        <v>642</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A156" s="98" t="s">
+        <v>643</v>
+      </c>
+      <c r="B156" s="11"/>
+    </row>
+    <row r="157" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="98" t="s">
+        <v>644</v>
+      </c>
+      <c r="B157" s="11"/>
+    </row>
+    <row r="158" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A158" s="98" t="s">
+        <v>645</v>
+      </c>
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A159" s="98" t="s">
+        <v>646</v>
+      </c>
+      <c r="B159" s="11"/>
+    </row>
+    <row r="160" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A160" s="98" t="s">
+        <v>647</v>
+      </c>
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A161" s="98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A162" s="98" t="s">
+        <v>649</v>
+      </c>
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A163" s="98"/>
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A164" s="99" t="s">
+        <v>656</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A165" s="98" t="s">
+        <v>655</v>
+      </c>
+      <c r="B165" s="11"/>
+    </row>
+    <row r="166" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A166" s="100" t="s">
+        <v>659</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A167" s="98" t="s">
+        <v>657</v>
+      </c>
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="101" t="s">
+        <v>614</v>
+      </c>
+      <c r="B168" s="11"/>
+    </row>
+    <row r="169" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A170" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="B170" s="11"/>
+    </row>
+    <row r="171" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A171" s="46" t="s">
+        <v>664</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+    </row>
+    <row r="173" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A173" s="102" t="s">
+        <v>652</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A174" s="103" t="s">
+        <v>613</v>
+      </c>
+      <c r="B174" s="11"/>
+    </row>
+    <row r="175" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A175" s="103" t="s">
+        <v>670</v>
+      </c>
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A176" s="103" t="s">
+        <v>614</v>
+      </c>
+      <c r="B176" s="11"/>
+    </row>
+    <row r="177" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A177" s="103" t="s">
+        <v>666</v>
+      </c>
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A178" s="103" t="s">
+        <v>667</v>
+      </c>
+      <c r="B178" s="11"/>
+    </row>
+    <row r="179" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A179" s="103" t="s">
+        <v>668</v>
+      </c>
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="104" t="s">
+        <v>614</v>
+      </c>
+      <c r="B180" s="11"/>
+    </row>
+    <row r="181" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+    </row>
+    <row r="182" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A182" s="106" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="103" t="s">
-        <v>694</v>
-      </c>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="103" t="s">
-        <v>695</v>
-      </c>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="103" t="s">
-        <v>686</v>
-      </c>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="103" t="s">
-        <v>687</v>
-      </c>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="103" t="s">
-        <v>688</v>
-      </c>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="103" t="s">
-        <v>689</v>
-      </c>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="103" t="s">
-        <v>690</v>
-      </c>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="103" t="s">
-        <v>691</v>
-      </c>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="104" t="s">
-        <v>692</v>
-      </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="49"/>
-      <c r="B44" s="11"/>
-    </row>
-    <row r="45" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="49"/>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="11"/>
-    </row>
-    <row r="47" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="49"/>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="49"/>
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="49"/>
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="49"/>
-      <c r="B50" s="11"/>
-    </row>
-    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="49"/>
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="49"/>
-      <c r="B52" s="11"/>
-    </row>
-    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="49"/>
-      <c r="B53" s="11"/>
-    </row>
-    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="49"/>
-      <c r="B54" s="11"/>
-    </row>
-    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="11"/>
-    </row>
-    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="11"/>
-    </row>
-    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="49"/>
-      <c r="B57" s="11"/>
-    </row>
-    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="49"/>
-      <c r="B58" s="11"/>
-    </row>
-    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="49"/>
-      <c r="B59" s="11"/>
-    </row>
-    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="49"/>
-      <c r="B60" s="11"/>
-    </row>
-    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A63" s="96" t="s">
+      <c r="B182" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="107" t="s">
         <v>697</v>
       </c>
-      <c r="B63" s="11"/>
-    </row>
-    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-    </row>
-    <row r="65" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="97" t="s">
-        <v>626</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="98" t="s">
-        <v>623</v>
-      </c>
-      <c r="B66" s="11"/>
-    </row>
-    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="98" t="s">
-        <v>624</v>
-      </c>
-      <c r="B67" s="11"/>
-    </row>
-    <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="98" t="s">
-        <v>625</v>
-      </c>
-      <c r="B68" s="11"/>
-    </row>
-    <row r="69" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="101" t="s">
-        <v>627</v>
-      </c>
-      <c r="B69" s="11"/>
-    </row>
-    <row r="70" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="49"/>
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="97" t="s">
-        <v>629</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="98" t="s">
-        <v>630</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="98" t="s">
-        <v>631</v>
-      </c>
-      <c r="B73" s="11"/>
-    </row>
-    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="98" t="s">
-        <v>632</v>
-      </c>
-      <c r="B74" s="11"/>
-    </row>
-    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="98" t="s">
-        <v>633</v>
-      </c>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="98" t="s">
-        <v>634</v>
-      </c>
-      <c r="B76" s="11"/>
-    </row>
-    <row r="77" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="101" t="s">
-        <v>632</v>
-      </c>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="49"/>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="97" t="s">
-        <v>614</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="98" t="s">
-        <v>617</v>
-      </c>
-      <c r="B80" s="11"/>
-    </row>
-    <row r="81" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="98" t="s">
-        <v>615</v>
-      </c>
-      <c r="B81" s="11"/>
-    </row>
-    <row r="82" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="105" t="s">
-        <v>642</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="98" t="s">
-        <v>637</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="98" t="s">
-        <v>619</v>
-      </c>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="98" t="s">
-        <v>618</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="98" t="s">
-        <v>620</v>
-      </c>
-      <c r="B86" s="11"/>
-    </row>
-    <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="98" t="s">
-        <v>616</v>
-      </c>
-      <c r="B87" s="11"/>
-    </row>
-    <row r="88" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="101" t="s">
-        <v>621</v>
-      </c>
-      <c r="B88" s="11"/>
-    </row>
-    <row r="89" spans="1:2" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-    </row>
-    <row r="90" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="97" t="s">
-        <v>654</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="98" t="s">
-        <v>655</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="98" t="s">
-        <v>644</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="98" t="s">
-        <v>645</v>
-      </c>
-      <c r="B93" s="11"/>
-    </row>
-    <row r="94" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="98" t="s">
-        <v>646</v>
-      </c>
-      <c r="B94" s="11"/>
-    </row>
-    <row r="95" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="98" t="s">
-        <v>647</v>
-      </c>
-      <c r="B95" s="11"/>
-    </row>
-    <row r="96" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="98" t="s">
-        <v>648</v>
-      </c>
-      <c r="B96" s="11"/>
-    </row>
-    <row r="97" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="98" t="s">
-        <v>649</v>
-      </c>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="98" t="s">
-        <v>650</v>
-      </c>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="98" t="s">
-        <v>651</v>
-      </c>
-      <c r="B99" s="11"/>
-    </row>
-    <row r="100" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="98"/>
-      <c r="B100" s="11"/>
-    </row>
-    <row r="101" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="99" t="s">
-        <v>658</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A102" s="98" t="s">
-        <v>657</v>
-      </c>
-      <c r="B102" s="11"/>
-    </row>
-    <row r="103" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="100" t="s">
-        <v>661</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="98" t="s">
-        <v>659</v>
-      </c>
-      <c r="B104" s="11"/>
-    </row>
-    <row r="105" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="101" t="s">
-        <v>616</v>
-      </c>
-      <c r="B105" s="11"/>
-    </row>
-    <row r="106" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-    </row>
-    <row r="107" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="46" t="s">
-        <v>614</v>
-      </c>
-      <c r="B107" s="11"/>
-    </row>
-    <row r="108" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-    </row>
-    <row r="110" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A110" s="102" t="s">
-        <v>654</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="103" t="s">
-        <v>615</v>
-      </c>
-      <c r="B111" s="11"/>
-    </row>
-    <row r="112" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="103" t="s">
-        <v>672</v>
-      </c>
-      <c r="B112" s="11"/>
-    </row>
-    <row r="113" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="103" t="s">
-        <v>616</v>
-      </c>
-      <c r="B113" s="11"/>
-    </row>
-    <row r="114" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="103" t="s">
-        <v>668</v>
-      </c>
-      <c r="B114" s="11"/>
-    </row>
-    <row r="115" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="103" t="s">
-        <v>669</v>
-      </c>
-      <c r="B115" s="11"/>
-    </row>
-    <row r="116" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="103" t="s">
-        <v>670</v>
-      </c>
-      <c r="B116" s="11"/>
-    </row>
-    <row r="117" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="104" t="s">
-        <v>616</v>
-      </c>
-      <c r="B117" s="11"/>
-    </row>
-    <row r="118" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-    </row>
-    <row r="119" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="109" t="s">
+    </row>
+    <row r="184" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="107" t="s">
         <v>698</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="110" t="s">
+    </row>
+    <row r="185" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="107" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="110" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="108"/>
+    </row>
+    <row r="187" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="109" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="109" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="110" t="s">
+    <row r="189" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="109" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="111"/>
-    </row>
-    <row r="124" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="112" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="112" t="s">
+    <row r="190" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="110" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="112" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="113" t="s">
-        <v>704</v>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +6642,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -6316,16 +6973,16 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="107" t="s">
+      <c r="A50" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="107"/>
+      <c r="B50" s="112"/>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="108"/>
+      <c r="B51" s="113"/>
     </row>
     <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
@@ -6874,7 +7531,7 @@
     </row>
     <row r="141" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A141" s="55" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>489</v>
@@ -6982,8 +7639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC532328-B521-42C9-AA9E-F5616725D26D}">
   <dimension ref="A1:B229"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7482,29 +8139,37 @@
         <v>482</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="84" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="84" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="84" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="84" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="85" t="s">
         <v>481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
